--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1072510\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3201A8A4-CF59-4BFB-9E3C-8FA139657BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6015" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$464</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$467</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="1072">
   <si>
     <t>id</t>
   </si>
@@ -3850,11 +3845,17 @@
   <si>
     <t>نموذج البريد الإلكتروني موضوع إلغاء الموعد</t>
   </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;} .bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt; &lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; #if ( !$isPreview &amp;&amp; $QRCodeSource ) &lt;td class=bottom&gt; &lt;img src=${QRCodeSource} width=85 height=85/&gt; &lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt;#if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("fullName") ) &lt;th&gt;$demographics.get("fullName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("fullName") ) &lt;td&gt;$demographics.get("fullName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("addressLine1") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Address&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;th&gt;$demographics.get("addressLine1").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;td&gt;$demographics.get("addressLine1").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("province") ) &lt;th&gt;$demographics.get("province").get("label")&lt;/th&gt; #end #if( $demographics.get("city") ) &lt;th&gt;$demographics.get("city").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("province") ) &lt;td&gt;$demographics.get("province").get("value")&lt;/td&gt; #end #if( $demographics.get("city") ) &lt;td&gt;$demographics.get("city").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;th&gt;$demographics.get("zone").get("label")&lt;/th&gt; #end #if( $demographics.get("postalCode") ) &lt;th&gt;$demographics.get("postalCode").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;td&gt;$demographics.get("zone").get("value")&lt;/td&gt; #end #if( $demographics.get("postalCode") ) &lt;td&gt;$demographics.get("postalCode").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("parentOrGuardianName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Gaurdian Details&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("parentOrGuardianName").get("label")&lt;/th&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;th&gt;$demographics.get("parentOrGuardianRID").get("label")&lt;/th&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;th&gt;$demographics.get("parentOrGuardianUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("parentOrGuardianName").get("value")&lt;/td&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;td&gt;$demographics.get("parentOrGuardianRID").get("value")&lt;/td&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;td&gt;$demographics.get("parentOrGuardianUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt;#if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br/&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt;&lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt;$biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; &lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( !$isPreview ) &lt;div class=biometrics&gt; &lt;h5 class=parentIris1&gt;$biometrics.get($key).get("LeftEye")&lt;/h5&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; &lt;/div&gt; #end #if( $isPreview &amp;&amp; $biometrics.get($key).get("CapturedLeftEye") )&lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt;#if( !$isPreview ) &lt;div class=biometrics&gt; &lt;h5 class=parentIris1&gt;$biometrics.get($key).get("RightEye")&lt;/h5&gt; &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; &lt;/div&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=leftLittle&gt;$biometrics.get($key).get("leftLittle")&lt;/h5&gt; &lt;h5 class=leftRing&gt;$biometrics.get($key).get("leftRing")&lt;/h5&gt; &lt;h5 class=leftMiddle&gt;$biometrics.get($key).get("leftMiddle")&lt;/h5&gt; &lt;h5 class=leftIndex&gt;$biometrics.get($key).get("leftIndex")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=rightIndex&gt;$biometrics.get($key).get("rightIndex")&lt;/h5&gt; &lt;h5 class=rightMiddle&gt;$biometrics.get($key).get("rightMiddle")&lt;/h5&gt; &lt;h5 class=rightRing&gt;$biometrics.get($key).get("rightRing")&lt;/h5&gt; &lt;h5 class=rightLittle&gt;$biometrics.get($key).get("rightLittle")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=leftThumb&gt;$biometrics.get($key).get("leftThumb")&lt;/h5&gt; &lt;h5 class=rightThumb&gt;$biometrics.get($key).get("rightThumb")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt;&lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;div&gt; &lt;table class=dataTable&gt; &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;${RONameLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;&lt;/td&gt; &lt;td&gt; &lt;p class=headings&gt;${RegCenterLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;hr/&gt; &lt;br/&gt; &lt;/div&gt;&lt;div&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt; &lt;ul&gt; #foreach( $line in $Guidelines ) &lt;li&gt;&lt;span&gt;${line}&lt;/span&gt;&lt;/li&gt; #end &lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;&lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; #if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("fullName") ) &lt;th&gt;$demographics.get("fullName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("fullName") ) &lt;td&gt;$demographics.get("fullName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("addressLine1") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Address&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;th&gt;$demographics.get("addressLine1").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;td&gt;$demographics.get("addressLine1").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("province") ) &lt;th&gt;$demographics.get("province").get("label")&lt;/th&gt; #end #if( $demographics.get("city") ) &lt;th&gt;$demographics.get("city").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("province") ) &lt;td&gt;$demographics.get("province").get("value")&lt;/td&gt; #end #if( $demographics.get("city") ) &lt;td&gt;$demographics.get("city").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;th&gt;$demographics.get("zone").get("label")&lt;/th&gt; #end #if( $demographics.get("postalCode") ) &lt;th&gt;$demographics.get("postalCode").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;td&gt;$demographics.get("zone").get("value")&lt;/td&gt; #end #if( $demographics.get("postalCode") ) &lt;td&gt;$demographics.get("postalCode").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("parentOrGuardianName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Gaurdian Details&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("parentOrGuardianName").get("label")&lt;/th&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;th&gt;$demographics.get("parentOrGuardianRID").get("label")&lt;/th&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;th&gt;$demographics.get("parentOrGuardianUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("parentOrGuardianName").get("value")&lt;/td&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;td&gt;$demographics.get("parentOrGuardianRID").get("value")&lt;/td&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;td&gt;$demographics.get("parentOrGuardianUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt; #if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt; &lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; $biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt;&lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt;&lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -3934,8 +3935,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4243,29 +4272,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F467" sqref="F467"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G417" sqref="G417"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" customWidth="1"/>
-    <col min="7" max="7" width="50.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="32.7265625" customWidth="1"/>
-    <col min="10" max="10" width="30.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="50.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="14" width="22.7265625" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="13" max="14" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4309,7 +4338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4351,7 +4380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -4393,7 +4422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -4561,7 +4590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.5" hidden="1">
+    <row r="8" spans="1:13" ht="45" hidden="1">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4643,7 +4672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29" hidden="1">
+    <row r="10" spans="1:13" ht="45" hidden="1">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4684,7 +4713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -4726,7 +4755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -4768,7 +4797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -4810,7 +4839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -4852,7 +4881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4894,7 +4923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -4936,7 +4965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -4978,7 +5007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -5356,7 +5385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="43.5" hidden="1">
+    <row r="27" spans="1:13" ht="45" hidden="1">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -5397,7 +5426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="43.5" hidden="1">
+    <row r="28" spans="1:13" ht="45" hidden="1">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -5438,7 +5467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="43.5" hidden="1">
+    <row r="29" spans="1:13" ht="45" hidden="1">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -5479,7 +5508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="43.5" hidden="1">
+    <row r="30" spans="1:13" ht="45" hidden="1">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -5520,7 +5549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="29" hidden="1">
+    <row r="31" spans="1:13" ht="30" hidden="1">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -5561,7 +5590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="29" hidden="1">
+    <row r="32" spans="1:13" ht="30" hidden="1">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -5602,7 +5631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="43.5" hidden="1">
+    <row r="33" spans="1:13" ht="45" hidden="1">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -5643,7 +5672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="43.5" hidden="1">
+    <row r="34" spans="1:13" ht="45" hidden="1">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -6440,7 +6469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="58" hidden="1">
+    <row r="53" spans="1:13" ht="60" hidden="1">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -6481,7 +6510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="29" hidden="1">
+    <row r="54" spans="1:13" ht="30" hidden="1">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -6522,7 +6551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="58" hidden="1">
+    <row r="55" spans="1:13" ht="60" hidden="1">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -6563,7 +6592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="43.5" hidden="1">
+    <row r="56" spans="1:13" ht="45" hidden="1">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -6604,7 +6633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:13" ht="30" hidden="1">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -6645,7 +6674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="43.5" hidden="1">
+    <row r="58" spans="1:13" ht="45" hidden="1">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -6686,7 +6715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="58" hidden="1">
+    <row r="59" spans="1:13" ht="60" hidden="1">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -6727,7 +6756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="29" hidden="1">
+    <row r="60" spans="1:13" ht="30" hidden="1">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -6768,7 +6797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="58" hidden="1">
+    <row r="61" spans="1:13" ht="60" hidden="1">
       <c r="A61" t="s">
         <v>145</v>
       </c>
@@ -6809,7 +6838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" t="s">
         <v>181</v>
       </c>
@@ -6851,7 +6880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -6893,7 +6922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -6935,7 +6964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" t="s">
         <v>194</v>
       </c>
@@ -6977,7 +7006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" t="s">
         <v>198</v>
       </c>
@@ -7019,7 +7048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -7313,7 +7342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="87" hidden="1">
+    <row r="74" spans="1:13" ht="90" hidden="1">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -7354,7 +7383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="29" hidden="1">
+    <row r="75" spans="1:13" ht="30" hidden="1">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -7395,7 +7424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="29" hidden="1">
+    <row r="76" spans="1:13" ht="45" hidden="1">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -7436,7 +7465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13" ht="30" hidden="1">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -7477,7 +7506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="29" hidden="1">
+    <row r="78" spans="1:13" ht="30" hidden="1">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -7518,7 +7547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="58" hidden="1">
+    <row r="79" spans="1:13" ht="60" hidden="1">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -7559,7 +7588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" t="s">
         <v>229</v>
       </c>
@@ -7685,7 +7714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" t="s">
         <v>237</v>
       </c>
@@ -7811,7 +7840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -7895,7 +7924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="29" hidden="1">
+    <row r="88" spans="1:13" ht="30" hidden="1">
       <c r="A88" t="s">
         <v>245</v>
       </c>
@@ -7937,7 +7966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" t="s">
         <v>251</v>
       </c>
@@ -8021,7 +8050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="29" hidden="1">
+    <row r="91" spans="1:13" ht="30" hidden="1">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -8063,7 +8092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" t="s">
         <v>258</v>
       </c>
@@ -8147,7 +8176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="29" hidden="1">
+    <row r="94" spans="1:13" ht="30" hidden="1">
       <c r="A94" t="s">
         <v>258</v>
       </c>
@@ -8189,7 +8218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" t="s">
         <v>264</v>
       </c>
@@ -8273,7 +8302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="29" hidden="1">
+    <row r="97" spans="1:13" ht="30" hidden="1">
       <c r="A97" t="s">
         <v>264</v>
       </c>
@@ -8315,7 +8344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" t="s">
         <v>271</v>
       </c>
@@ -8399,7 +8428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="130.5" hidden="1">
+    <row r="100" spans="1:13" ht="150" hidden="1">
       <c r="A100" t="s">
         <v>271</v>
       </c>
@@ -8441,7 +8470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" t="s">
         <v>284</v>
       </c>
@@ -8525,7 +8554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="130.5" hidden="1">
+    <row r="103" spans="1:13" ht="150" hidden="1">
       <c r="A103" t="s">
         <v>284</v>
       </c>
@@ -8567,7 +8596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" hidden="1">
       <c r="A104" t="s">
         <v>291</v>
       </c>
@@ -8609,7 +8638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" hidden="1">
       <c r="A105" t="s">
         <v>295</v>
       </c>
@@ -8651,7 +8680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106" t="s">
         <v>297</v>
       </c>
@@ -8693,7 +8722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107" t="s">
         <v>299</v>
       </c>
@@ -8735,7 +8764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" hidden="1">
       <c r="A108" t="s">
         <v>300</v>
       </c>
@@ -8861,7 +8890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" hidden="1">
       <c r="A111" t="s">
         <v>308</v>
       </c>
@@ -8987,7 +9016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114" t="s">
         <v>314</v>
       </c>
@@ -9533,7 +9562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" hidden="1">
       <c r="A127" t="s">
         <v>322</v>
       </c>
@@ -9659,7 +9688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" t="s">
         <v>323</v>
       </c>
@@ -9743,7 +9772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132" t="s">
         <v>324</v>
       </c>
@@ -9869,7 +9898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" t="s">
         <v>325</v>
       </c>
@@ -9953,7 +9982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="29" hidden="1">
+    <row r="137" spans="1:13" ht="30" hidden="1">
       <c r="A137" t="s">
         <v>325</v>
       </c>
@@ -9995,7 +10024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" hidden="1">
       <c r="A138" t="s">
         <v>333</v>
       </c>
@@ -10121,7 +10150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141" t="s">
         <v>341</v>
       </c>
@@ -10205,7 +10234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="29" hidden="1">
+    <row r="143" spans="1:13" ht="30" hidden="1">
       <c r="A143" t="s">
         <v>341</v>
       </c>
@@ -10247,7 +10276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144" t="s">
         <v>349</v>
       </c>
@@ -10331,7 +10360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="72.5" hidden="1">
+    <row r="146" spans="1:13" ht="90" hidden="1">
       <c r="A146" t="s">
         <v>349</v>
       </c>
@@ -10373,7 +10402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" hidden="1">
       <c r="A147" t="s">
         <v>357</v>
       </c>
@@ -10457,7 +10486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="29" hidden="1">
+    <row r="149" spans="1:13" ht="30" hidden="1">
       <c r="A149" t="s">
         <v>357</v>
       </c>
@@ -10499,7 +10528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" t="s">
         <v>364</v>
       </c>
@@ -10583,7 +10612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="29" hidden="1">
+    <row r="152" spans="1:13" ht="30" hidden="1">
       <c r="A152" t="s">
         <v>364</v>
       </c>
@@ -10625,7 +10654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" hidden="1">
       <c r="A153" t="s">
         <v>367</v>
       </c>
@@ -10709,7 +10738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="29" hidden="1">
+    <row r="155" spans="1:13" ht="45" hidden="1">
       <c r="A155" t="s">
         <v>367</v>
       </c>
@@ -10751,7 +10780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" hidden="1">
       <c r="A156" t="s">
         <v>372</v>
       </c>
@@ -10835,7 +10864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="29" hidden="1">
+    <row r="158" spans="1:13" ht="45" hidden="1">
       <c r="A158" t="s">
         <v>372</v>
       </c>
@@ -10877,7 +10906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159" t="s">
         <v>374</v>
       </c>
@@ -10961,7 +10990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="58" hidden="1">
+    <row r="161" spans="1:13" ht="60" hidden="1">
       <c r="A161" t="s">
         <v>374</v>
       </c>
@@ -11003,7 +11032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" t="s">
         <v>382</v>
       </c>
@@ -11087,7 +11116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="29" hidden="1">
+    <row r="164" spans="1:13" ht="45" hidden="1">
       <c r="A164" t="s">
         <v>382</v>
       </c>
@@ -11129,7 +11158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" t="s">
         <v>390</v>
       </c>
@@ -11213,7 +11242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="43.5" hidden="1">
+    <row r="167" spans="1:13" ht="45" hidden="1">
       <c r="A167" t="s">
         <v>390</v>
       </c>
@@ -11255,7 +11284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168" t="s">
         <v>398</v>
       </c>
@@ -11381,7 +11410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" t="s">
         <v>405</v>
       </c>
@@ -11465,7 +11494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="29" hidden="1">
+    <row r="173" spans="1:13" ht="30" hidden="1">
       <c r="A173" t="s">
         <v>405</v>
       </c>
@@ -11507,7 +11536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" t="s">
         <v>415</v>
       </c>
@@ -11591,7 +11620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="29" hidden="1">
+    <row r="176" spans="1:13" ht="30" hidden="1">
       <c r="A176" t="s">
         <v>415</v>
       </c>
@@ -11633,7 +11662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" t="s">
         <v>421</v>
       </c>
@@ -11717,7 +11746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="29" hidden="1">
+    <row r="179" spans="1:13" ht="30" hidden="1">
       <c r="A179" t="s">
         <v>421</v>
       </c>
@@ -11759,7 +11788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" t="s">
         <v>429</v>
       </c>
@@ -11843,7 +11872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="29" hidden="1">
+    <row r="182" spans="1:13" ht="30" hidden="1">
       <c r="A182" t="s">
         <v>429</v>
       </c>
@@ -11885,7 +11914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" t="s">
         <v>437</v>
       </c>
@@ -11969,7 +11998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="29" hidden="1">
+    <row r="185" spans="1:13" ht="30" hidden="1">
       <c r="A185" t="s">
         <v>437</v>
       </c>
@@ -12011,7 +12040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186" t="s">
         <v>447</v>
       </c>
@@ -12095,7 +12124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="29" hidden="1">
+    <row r="188" spans="1:13" ht="30" hidden="1">
       <c r="A188" t="s">
         <v>447</v>
       </c>
@@ -12137,7 +12166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" hidden="1">
       <c r="A189" t="s">
         <v>452</v>
       </c>
@@ -12221,7 +12250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="29" hidden="1">
+    <row r="191" spans="1:13" ht="30" hidden="1">
       <c r="A191" t="s">
         <v>452</v>
       </c>
@@ -12263,7 +12292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192" t="s">
         <v>460</v>
       </c>
@@ -12347,7 +12376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="29" hidden="1">
+    <row r="194" spans="1:13" ht="30" hidden="1">
       <c r="A194" t="s">
         <v>460</v>
       </c>
@@ -12389,7 +12418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" t="s">
         <v>468</v>
       </c>
@@ -12473,7 +12502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="29" hidden="1">
+    <row r="197" spans="1:13" ht="30" hidden="1">
       <c r="A197" t="s">
         <v>468</v>
       </c>
@@ -12515,7 +12544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" t="s">
         <v>473</v>
       </c>
@@ -12599,7 +12628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="29" hidden="1">
+    <row r="200" spans="1:13" ht="30" hidden="1">
       <c r="A200" t="s">
         <v>473</v>
       </c>
@@ -12641,7 +12670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" t="s">
         <v>481</v>
       </c>
@@ -12725,7 +12754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="29" hidden="1">
+    <row r="203" spans="1:13" ht="30" hidden="1">
       <c r="A203" t="s">
         <v>481</v>
       </c>
@@ -12767,7 +12796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" t="s">
         <v>489</v>
       </c>
@@ -12851,7 +12880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="29" hidden="1">
+    <row r="206" spans="1:13" ht="30" hidden="1">
       <c r="A206" t="s">
         <v>489</v>
       </c>
@@ -12893,7 +12922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" t="s">
         <v>494</v>
       </c>
@@ -12977,7 +13006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="29" hidden="1">
+    <row r="209" spans="1:13" ht="30" hidden="1">
       <c r="A209" t="s">
         <v>494</v>
       </c>
@@ -13019,7 +13048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" t="s">
         <v>502</v>
       </c>
@@ -13145,7 +13174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" t="s">
         <v>510</v>
       </c>
@@ -13229,7 +13258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="29" hidden="1">
+    <row r="215" spans="1:13" ht="30" hidden="1">
       <c r="A215" t="s">
         <v>510</v>
       </c>
@@ -13271,7 +13300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" t="s">
         <v>515</v>
       </c>
@@ -13355,7 +13384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1">
+    <row r="218" spans="1:13" ht="30" hidden="1">
       <c r="A218" t="s">
         <v>515</v>
       </c>
@@ -13397,7 +13426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" t="s">
         <v>523</v>
       </c>
@@ -13523,7 +13552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" hidden="1">
       <c r="A222" t="s">
         <v>531</v>
       </c>
@@ -13607,7 +13636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1">
+    <row r="224" spans="1:13" ht="30" hidden="1">
       <c r="A224" t="s">
         <v>531</v>
       </c>
@@ -13649,7 +13678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" t="s">
         <v>536</v>
       </c>
@@ -13733,7 +13762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="29" hidden="1">
+    <row r="227" spans="1:13" ht="30" hidden="1">
       <c r="A227" t="s">
         <v>536</v>
       </c>
@@ -13775,7 +13804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" t="s">
         <v>544</v>
       </c>
@@ -13901,7 +13930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" t="s">
         <v>552</v>
       </c>
@@ -13985,7 +14014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="29" hidden="1">
+    <row r="233" spans="1:13" ht="30" hidden="1">
       <c r="A233" t="s">
         <v>552</v>
       </c>
@@ -14027,7 +14056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" t="s">
         <v>557</v>
       </c>
@@ -14111,7 +14140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="29" hidden="1">
+    <row r="236" spans="1:13" ht="30" hidden="1">
       <c r="A236" t="s">
         <v>557</v>
       </c>
@@ -14153,7 +14182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" t="s">
         <v>565</v>
       </c>
@@ -14237,7 +14266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="29" hidden="1">
+    <row r="239" spans="1:13" ht="30" hidden="1">
       <c r="A239" t="s">
         <v>565</v>
       </c>
@@ -14279,7 +14308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" t="s">
         <v>573</v>
       </c>
@@ -14363,7 +14392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1">
+    <row r="242" spans="1:13" ht="30" hidden="1">
       <c r="A242" t="s">
         <v>573</v>
       </c>
@@ -14405,7 +14434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" t="s">
         <v>580</v>
       </c>
@@ -14489,7 +14518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="29" hidden="1">
+    <row r="245" spans="1:13" ht="30" hidden="1">
       <c r="A245" t="s">
         <v>580</v>
       </c>
@@ -14531,7 +14560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" t="s">
         <v>588</v>
       </c>
@@ -14615,7 +14644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1">
+    <row r="248" spans="1:13" ht="30" hidden="1">
       <c r="A248" t="s">
         <v>588</v>
       </c>
@@ -14657,7 +14686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" t="s">
         <v>596</v>
       </c>
@@ -14741,7 +14770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="29" hidden="1">
+    <row r="251" spans="1:13" ht="30" hidden="1">
       <c r="A251" t="s">
         <v>596</v>
       </c>
@@ -14783,7 +14812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" t="s">
         <v>601</v>
       </c>
@@ -14867,7 +14896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="29" hidden="1">
+    <row r="254" spans="1:13" ht="30" hidden="1">
       <c r="A254" t="s">
         <v>601</v>
       </c>
@@ -14909,7 +14938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" t="s">
         <v>609</v>
       </c>
@@ -14993,7 +15022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="29" hidden="1">
+    <row r="257" spans="1:13" ht="30" hidden="1">
       <c r="A257" t="s">
         <v>609</v>
       </c>
@@ -15035,7 +15064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258" t="s">
         <v>617</v>
       </c>
@@ -15119,7 +15148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="29" hidden="1">
+    <row r="260" spans="1:13" ht="30" hidden="1">
       <c r="A260" t="s">
         <v>617</v>
       </c>
@@ -15161,7 +15190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" hidden="1">
       <c r="A261" t="s">
         <v>622</v>
       </c>
@@ -15245,7 +15274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="29" hidden="1">
+    <row r="263" spans="1:13" ht="30" hidden="1">
       <c r="A263" t="s">
         <v>622</v>
       </c>
@@ -15287,7 +15316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" hidden="1">
       <c r="A264" t="s">
         <v>630</v>
       </c>
@@ -15371,7 +15400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="29" hidden="1">
+    <row r="266" spans="1:13" ht="30" hidden="1">
       <c r="A266" t="s">
         <v>630</v>
       </c>
@@ -15413,7 +15442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" hidden="1">
       <c r="A267" t="s">
         <v>638</v>
       </c>
@@ -15497,7 +15526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="29" hidden="1">
+    <row r="269" spans="1:13" ht="30" hidden="1">
       <c r="A269" t="s">
         <v>638</v>
       </c>
@@ -15539,7 +15568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" hidden="1">
       <c r="A270" t="s">
         <v>643</v>
       </c>
@@ -15623,7 +15652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="29" hidden="1">
+    <row r="272" spans="1:13" ht="30" hidden="1">
       <c r="A272" t="s">
         <v>643</v>
       </c>
@@ -15665,7 +15694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" hidden="1">
       <c r="A273" t="s">
         <v>651</v>
       </c>
@@ -15749,7 +15778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="29" hidden="1">
+    <row r="275" spans="1:13" ht="30" hidden="1">
       <c r="A275" t="s">
         <v>651</v>
       </c>
@@ -15791,7 +15820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" hidden="1">
       <c r="A276" t="s">
         <v>659</v>
       </c>
@@ -15875,7 +15904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="29" hidden="1">
+    <row r="278" spans="1:13" ht="30" hidden="1">
       <c r="A278" t="s">
         <v>659</v>
       </c>
@@ -15917,7 +15946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" hidden="1">
       <c r="A279" t="s">
         <v>664</v>
       </c>
@@ -16001,7 +16030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="29" hidden="1">
+    <row r="281" spans="1:13" ht="30" hidden="1">
       <c r="A281" t="s">
         <v>664</v>
       </c>
@@ -16043,7 +16072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" hidden="1">
       <c r="A282" t="s">
         <v>672</v>
       </c>
@@ -16127,7 +16156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="29" hidden="1">
+    <row r="284" spans="1:13" ht="30" hidden="1">
       <c r="A284" t="s">
         <v>672</v>
       </c>
@@ -16169,7 +16198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" hidden="1">
       <c r="A285" t="s">
         <v>678</v>
       </c>
@@ -16253,7 +16282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="29" hidden="1">
+    <row r="287" spans="1:13" ht="30" hidden="1">
       <c r="A287" t="s">
         <v>678</v>
       </c>
@@ -16295,7 +16324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" hidden="1">
       <c r="A288" t="s">
         <v>683</v>
       </c>
@@ -16379,7 +16408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="29" hidden="1">
+    <row r="290" spans="1:13" ht="30" hidden="1">
       <c r="A290" t="s">
         <v>683</v>
       </c>
@@ -16421,7 +16450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" hidden="1">
       <c r="A291" t="s">
         <v>691</v>
       </c>
@@ -16547,7 +16576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" hidden="1">
       <c r="A294" t="s">
         <v>699</v>
       </c>
@@ -16631,7 +16660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="29" hidden="1">
+    <row r="296" spans="1:13" ht="30" hidden="1">
       <c r="A296" t="s">
         <v>699</v>
       </c>
@@ -16673,7 +16702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" hidden="1">
       <c r="A297" t="s">
         <v>704</v>
       </c>
@@ -16757,7 +16786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="29" hidden="1">
+    <row r="299" spans="1:13" ht="30" hidden="1">
       <c r="A299" t="s">
         <v>704</v>
       </c>
@@ -16799,7 +16828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" hidden="1">
       <c r="A300" t="s">
         <v>712</v>
       </c>
@@ -16883,7 +16912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="29" hidden="1">
+    <row r="302" spans="1:13" ht="30" hidden="1">
       <c r="A302" t="s">
         <v>712</v>
       </c>
@@ -16925,7 +16954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" hidden="1">
       <c r="A303" t="s">
         <v>720</v>
       </c>
@@ -17009,7 +17038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="29" hidden="1">
+    <row r="305" spans="1:13" ht="30" hidden="1">
       <c r="A305" t="s">
         <v>720</v>
       </c>
@@ -17051,7 +17080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" hidden="1">
       <c r="A306" t="s">
         <v>725</v>
       </c>
@@ -17135,7 +17164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="29" hidden="1">
+    <row r="308" spans="1:13" ht="30" hidden="1">
       <c r="A308" t="s">
         <v>725</v>
       </c>
@@ -17177,7 +17206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" hidden="1">
       <c r="A309" t="s">
         <v>733</v>
       </c>
@@ -17261,7 +17290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="29" hidden="1">
+    <row r="311" spans="1:13" ht="30" hidden="1">
       <c r="A311" t="s">
         <v>733</v>
       </c>
@@ -17303,7 +17332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" hidden="1">
       <c r="A312" t="s">
         <v>741</v>
       </c>
@@ -17387,7 +17416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="29" hidden="1">
+    <row r="314" spans="1:13" ht="30" hidden="1">
       <c r="A314" t="s">
         <v>741</v>
       </c>
@@ -17429,7 +17458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" hidden="1">
       <c r="A315" t="s">
         <v>746</v>
       </c>
@@ -17513,7 +17542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="29" hidden="1">
+    <row r="317" spans="1:13" ht="30" hidden="1">
       <c r="A317" t="s">
         <v>746</v>
       </c>
@@ -17555,7 +17584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" hidden="1">
       <c r="A318" t="s">
         <v>753</v>
       </c>
@@ -17639,7 +17668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="29" hidden="1">
+    <row r="320" spans="1:13" ht="30" hidden="1">
       <c r="A320" t="s">
         <v>753</v>
       </c>
@@ -17681,7 +17710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" hidden="1">
       <c r="A321" t="s">
         <v>757</v>
       </c>
@@ -17765,7 +17794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="29" hidden="1">
+    <row r="323" spans="1:13" ht="30" hidden="1">
       <c r="A323" t="s">
         <v>757</v>
       </c>
@@ -17807,7 +17836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" hidden="1">
       <c r="A324" t="s">
         <v>764</v>
       </c>
@@ -17891,7 +17920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="29" hidden="1">
+    <row r="326" spans="1:13" ht="30" hidden="1">
       <c r="A326" t="s">
         <v>764</v>
       </c>
@@ -17933,7 +17962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" hidden="1">
       <c r="A327" t="s">
         <v>768</v>
       </c>
@@ -18017,7 +18046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="29" hidden="1">
+    <row r="329" spans="1:13" ht="30" hidden="1">
       <c r="A329" t="s">
         <v>768</v>
       </c>
@@ -18059,7 +18088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" hidden="1">
       <c r="A330" t="s">
         <v>775</v>
       </c>
@@ -18143,7 +18172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="29" hidden="1">
+    <row r="332" spans="1:13" ht="30" hidden="1">
       <c r="A332" t="s">
         <v>775</v>
       </c>
@@ -18185,7 +18214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" hidden="1">
       <c r="A333" t="s">
         <v>779</v>
       </c>
@@ -18269,7 +18298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="29" hidden="1">
+    <row r="335" spans="1:13" ht="30" hidden="1">
       <c r="A335" t="s">
         <v>779</v>
       </c>
@@ -18311,7 +18340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" hidden="1">
       <c r="A336" t="s">
         <v>783</v>
       </c>
@@ -18395,7 +18424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="29" hidden="1">
+    <row r="338" spans="1:13" ht="30" hidden="1">
       <c r="A338" t="s">
         <v>783</v>
       </c>
@@ -18437,7 +18466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" hidden="1">
       <c r="A339" t="s">
         <v>787</v>
       </c>
@@ -18521,7 +18550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="29" hidden="1">
+    <row r="341" spans="1:13" ht="30" hidden="1">
       <c r="A341" t="s">
         <v>787</v>
       </c>
@@ -18563,7 +18592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" hidden="1">
       <c r="A342" t="s">
         <v>794</v>
       </c>
@@ -18647,7 +18676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="29" hidden="1">
+    <row r="344" spans="1:13" ht="30" hidden="1">
       <c r="A344" t="s">
         <v>794</v>
       </c>
@@ -18689,7 +18718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" hidden="1">
       <c r="A345" t="s">
         <v>798</v>
       </c>
@@ -18773,7 +18802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="29" hidden="1">
+    <row r="347" spans="1:13" ht="30" hidden="1">
       <c r="A347" t="s">
         <v>798</v>
       </c>
@@ -18815,7 +18844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" hidden="1">
       <c r="A348" t="s">
         <v>805</v>
       </c>
@@ -18899,7 +18928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="29" hidden="1">
+    <row r="350" spans="1:13" ht="30" hidden="1">
       <c r="A350" t="s">
         <v>805</v>
       </c>
@@ -18941,7 +18970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" hidden="1">
       <c r="A351" t="s">
         <v>809</v>
       </c>
@@ -19025,7 +19054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="29" hidden="1">
+    <row r="353" spans="1:13" ht="30" hidden="1">
       <c r="A353" t="s">
         <v>809</v>
       </c>
@@ -19067,7 +19096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" hidden="1">
       <c r="A354" t="s">
         <v>816</v>
       </c>
@@ -19151,7 +19180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="29" hidden="1">
+    <row r="356" spans="1:13" ht="30" hidden="1">
       <c r="A356" t="s">
         <v>816</v>
       </c>
@@ -19193,7 +19222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" hidden="1">
       <c r="A357" t="s">
         <v>820</v>
       </c>
@@ -19277,7 +19306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="29" hidden="1">
+    <row r="359" spans="1:13" ht="30" hidden="1">
       <c r="A359" t="s">
         <v>820</v>
       </c>
@@ -19319,7 +19348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" hidden="1">
       <c r="A360" t="s">
         <v>826</v>
       </c>
@@ -19403,7 +19432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="29" hidden="1">
+    <row r="362" spans="1:13" ht="30" hidden="1">
       <c r="A362" t="s">
         <v>826</v>
       </c>
@@ -19445,7 +19474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" hidden="1">
       <c r="A363" t="s">
         <v>833</v>
       </c>
@@ -19529,7 +19558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="29" hidden="1">
+    <row r="365" spans="1:13" ht="30" hidden="1">
       <c r="A365" t="s">
         <v>833</v>
       </c>
@@ -19571,7 +19600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:13">
+    <row r="366" spans="1:13" hidden="1">
       <c r="A366" t="s">
         <v>840</v>
       </c>
@@ -19655,7 +19684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="29" hidden="1">
+    <row r="368" spans="1:13" ht="30" hidden="1">
       <c r="A368" t="s">
         <v>840</v>
       </c>
@@ -19697,7 +19726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="369" spans="1:13">
+    <row r="369" spans="1:13" hidden="1">
       <c r="A369" t="s">
         <v>847</v>
       </c>
@@ -19781,7 +19810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="29" hidden="1">
+    <row r="371" spans="1:13" ht="30" hidden="1">
       <c r="A371" t="s">
         <v>847</v>
       </c>
@@ -19823,7 +19852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" hidden="1">
       <c r="A372" t="s">
         <v>851</v>
       </c>
@@ -19907,7 +19936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="29" hidden="1">
+    <row r="374" spans="1:13" ht="30" hidden="1">
       <c r="A374" t="s">
         <v>851</v>
       </c>
@@ -19949,7 +19978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="375" spans="1:13">
+    <row r="375" spans="1:13" hidden="1">
       <c r="A375" t="s">
         <v>858</v>
       </c>
@@ -20033,7 +20062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="29" hidden="1">
+    <row r="377" spans="1:13" ht="30" hidden="1">
       <c r="A377" t="s">
         <v>858</v>
       </c>
@@ -20075,7 +20104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:13" hidden="1">
       <c r="A378" t="s">
         <v>865</v>
       </c>
@@ -20159,7 +20188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="43.5" hidden="1">
+    <row r="380" spans="1:13" ht="60" hidden="1">
       <c r="A380" t="s">
         <v>865</v>
       </c>
@@ -20201,7 +20230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:13">
+    <row r="381" spans="1:13" hidden="1">
       <c r="A381" t="s">
         <v>872</v>
       </c>
@@ -20285,7 +20314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="43.5" hidden="1">
+    <row r="383" spans="1:13" ht="60" hidden="1">
       <c r="A383" t="s">
         <v>872</v>
       </c>
@@ -20327,7 +20356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" spans="1:13">
+    <row r="384" spans="1:13" hidden="1">
       <c r="A384" t="s">
         <v>876</v>
       </c>
@@ -20411,7 +20440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1">
+    <row r="386" spans="1:13" ht="30" hidden="1">
       <c r="A386" t="s">
         <v>876</v>
       </c>
@@ -20453,7 +20482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="387" spans="1:13">
+    <row r="387" spans="1:13" hidden="1">
       <c r="A387" t="s">
         <v>883</v>
       </c>
@@ -20537,7 +20566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="29" hidden="1">
+    <row r="389" spans="1:13" ht="30" hidden="1">
       <c r="A389" t="s">
         <v>883</v>
       </c>
@@ -20579,7 +20608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:13" hidden="1">
       <c r="A390" t="s">
         <v>890</v>
       </c>
@@ -20663,7 +20692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="29" hidden="1">
+    <row r="392" spans="1:13" ht="30" hidden="1">
       <c r="A392" t="s">
         <v>890</v>
       </c>
@@ -20705,7 +20734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:13" hidden="1">
       <c r="A393" t="s">
         <v>894</v>
       </c>
@@ -20789,7 +20818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="29" hidden="1">
+    <row r="395" spans="1:13" ht="30" hidden="1">
       <c r="A395" t="s">
         <v>894</v>
       </c>
@@ -20831,7 +20860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:13" hidden="1">
       <c r="A396" t="s">
         <v>901</v>
       </c>
@@ -20915,7 +20944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="29" hidden="1">
+    <row r="398" spans="1:13" ht="30" hidden="1">
       <c r="A398" t="s">
         <v>901</v>
       </c>
@@ -20957,7 +20986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:13">
+    <row r="399" spans="1:13" hidden="1">
       <c r="A399" t="s">
         <v>908</v>
       </c>
@@ -21041,7 +21070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="29" hidden="1">
+    <row r="401" spans="1:13" ht="30" hidden="1">
       <c r="A401" t="s">
         <v>908</v>
       </c>
@@ -21083,7 +21112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:13">
+    <row r="402" spans="1:13" hidden="1">
       <c r="A402" t="s">
         <v>914</v>
       </c>
@@ -21209,7 +21238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:13">
+    <row r="405" spans="1:13" hidden="1">
       <c r="A405" t="s">
         <v>921</v>
       </c>
@@ -21293,7 +21322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="43.5" hidden="1">
+    <row r="407" spans="1:13" ht="60" hidden="1">
       <c r="A407" t="s">
         <v>921</v>
       </c>
@@ -21335,7 +21364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:13">
+    <row r="408" spans="1:13" hidden="1">
       <c r="A408" t="s">
         <v>928</v>
       </c>
@@ -21419,7 +21448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="43.5" hidden="1">
+    <row r="410" spans="1:13" ht="60" hidden="1">
       <c r="A410" t="s">
         <v>928</v>
       </c>
@@ -21461,7 +21490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:13">
+    <row r="411" spans="1:13" hidden="1">
       <c r="A411" t="s">
         <v>932</v>
       </c>
@@ -21607,7 +21636,7 @@
         <v>17</v>
       </c>
       <c r="G414" t="s">
-        <v>941</v>
+        <v>1070</v>
       </c>
       <c r="H414">
         <v>10002</v>
@@ -21733,7 +21762,7 @@
         <v>17</v>
       </c>
       <c r="G417" t="s">
-        <v>948</v>
+        <v>1071</v>
       </c>
       <c r="H417">
         <v>10002</v>
@@ -21965,7 +21994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="423" spans="1:13">
+    <row r="423" spans="1:13" hidden="1">
       <c r="A423" t="s">
         <v>961</v>
       </c>
@@ -22007,7 +22036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:13">
+    <row r="424" spans="1:13" hidden="1">
       <c r="A424" t="s">
         <v>966</v>
       </c>
@@ -22049,7 +22078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" spans="1:13">
+    <row r="425" spans="1:13" hidden="1">
       <c r="A425" t="s">
         <v>970</v>
       </c>
@@ -22091,7 +22120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:13">
+    <row r="426" spans="1:13" hidden="1">
       <c r="A426" t="s">
         <v>974</v>
       </c>
@@ -22133,7 +22162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="427" spans="1:13">
+    <row r="427" spans="1:13" hidden="1">
       <c r="A427" t="s">
         <v>978</v>
       </c>
@@ -22175,7 +22204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="428" spans="1:13">
+    <row r="428" spans="1:13" hidden="1">
       <c r="A428" t="s">
         <v>982</v>
       </c>
@@ -22595,7 +22624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="159.5">
+    <row r="438" spans="1:13" ht="165" hidden="1">
       <c r="A438" t="s">
         <v>995</v>
       </c>
@@ -22637,7 +22666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="174" hidden="1">
+    <row r="439" spans="1:13" ht="180" hidden="1">
       <c r="A439" t="s">
         <v>995</v>
       </c>
@@ -22679,7 +22708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="72.5" hidden="1">
+    <row r="440" spans="1:13" ht="90" hidden="1">
       <c r="A440" t="s">
         <v>995</v>
       </c>
@@ -22721,7 +22750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:13">
+    <row r="441" spans="1:13" hidden="1">
       <c r="A441" t="s">
         <v>1003</v>
       </c>
@@ -22760,7 +22789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="145" hidden="1">
+    <row r="442" spans="1:13" ht="150" hidden="1">
       <c r="A442" t="s">
         <v>1003</v>
       </c>
@@ -22802,7 +22831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="29" hidden="1">
+    <row r="443" spans="1:13" ht="30" hidden="1">
       <c r="A443" t="s">
         <v>1003</v>
       </c>
@@ -22841,7 +22870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="1:13">
+    <row r="444" spans="1:13" hidden="1">
       <c r="A444" t="s">
         <v>1009</v>
       </c>
@@ -22925,7 +22954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" spans="1:13" hidden="1">
+    <row r="446" spans="1:13" ht="30" hidden="1">
       <c r="A446" t="s">
         <v>1009</v>
       </c>
@@ -22967,7 +22996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="1:13">
+    <row r="447" spans="1:13" hidden="1">
       <c r="A447" t="s">
         <v>1014</v>
       </c>
@@ -23093,7 +23122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:13">
+    <row r="450" spans="1:13" hidden="1">
       <c r="A450" t="s">
         <v>1019</v>
       </c>
@@ -23219,7 +23248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" hidden="1">
       <c r="A453" t="s">
         <v>1024</v>
       </c>
@@ -23345,7 +23374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" hidden="1">
       <c r="A456" t="s">
         <v>1029</v>
       </c>
@@ -23471,7 +23500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:13">
+    <row r="459" spans="1:13" hidden="1">
       <c r="A459" t="s">
         <v>1034</v>
       </c>
@@ -23597,7 +23626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" hidden="1">
       <c r="A462" t="s">
         <v>1039</v>
       </c>
@@ -23681,7 +23710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="464" spans="1:13" hidden="1">
+    <row r="464" spans="1:13" ht="30" hidden="1">
       <c r="A464" t="s">
         <v>1039</v>
       </c>
@@ -23723,7 +23752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:13">
+    <row r="465" spans="1:13" hidden="1">
       <c r="A465" s="4">
         <v>1281</v>
       </c>
@@ -23764,7 +23793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:13">
+    <row r="466" spans="1:13" hidden="1">
       <c r="A466" s="4">
         <v>1281</v>
       </c>
@@ -23805,7 +23834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="467" spans="1:13">
+    <row r="467" spans="1:13" hidden="1">
       <c r="A467" s="4">
         <v>1281</v>
       </c>
@@ -23847,10 +23876,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N464" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N467">
     <filterColumn colId="1">
       <filters>
         <filter val="eng"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Registration Client"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$N$467</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$N$467</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5253" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5596" uniqueCount="1075">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -13073,10 +13073,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -13165,7 +13164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13188,10 +13187,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -13222,22 +13217,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F116" activeCellId="0" sqref="F116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H452" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3:K467"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
@@ -18092,7 +18083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>320</v>
       </c>
@@ -18123,9 +18114,8 @@
       <c r="J119" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="K119" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K119" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L119" s="0" t="s">
         <v>22</v>
@@ -18134,7 +18124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>324</v>
       </c>
@@ -18165,9 +18155,8 @@
       <c r="J120" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="K120" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K120" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L120" s="0" t="s">
         <v>22</v>
@@ -18217,7 +18206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>324</v>
       </c>
@@ -18248,9 +18237,8 @@
       <c r="J122" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="K122" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K122" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L122" s="0" t="s">
         <v>22</v>
@@ -18300,7 +18288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>326</v>
       </c>
@@ -18331,9 +18319,8 @@
       <c r="J124" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="K124" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K124" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L124" s="0" t="s">
         <v>22</v>
@@ -18342,7 +18329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>326</v>
       </c>
@@ -18373,9 +18360,8 @@
       <c r="J125" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="K125" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K125" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L125" s="0" t="s">
         <v>22</v>
@@ -18384,7 +18370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>327</v>
       </c>
@@ -18415,9 +18401,8 @@
       <c r="J126" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="K126" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K126" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L126" s="0" t="s">
         <v>22</v>
@@ -18426,7 +18411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>327</v>
       </c>
@@ -18457,9 +18442,8 @@
       <c r="J127" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="K127" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K127" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L127" s="0" t="s">
         <v>22</v>
@@ -18468,7 +18452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>327</v>
       </c>
@@ -18499,9 +18483,8 @@
       <c r="J128" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="K128" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K128" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L128" s="0" t="s">
         <v>22</v>
@@ -18510,7 +18493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>328</v>
       </c>
@@ -18541,9 +18524,8 @@
       <c r="J129" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="K129" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K129" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L129" s="0" t="s">
         <v>22</v>
@@ -18552,7 +18534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>328</v>
       </c>
@@ -18583,9 +18565,8 @@
       <c r="J130" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="K130" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K130" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L130" s="0" t="s">
         <v>22</v>
@@ -18594,7 +18575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>328</v>
       </c>
@@ -18625,9 +18606,8 @@
       <c r="J131" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="K131" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K131" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L131" s="0" t="s">
         <v>22</v>
@@ -18636,7 +18616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>329</v>
       </c>
@@ -18667,9 +18647,8 @@
       <c r="J132" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="K132" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K132" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L132" s="0" t="s">
         <v>22</v>
@@ -18678,7 +18657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>329</v>
       </c>
@@ -18709,9 +18688,8 @@
       <c r="J133" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="K133" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K133" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L133" s="0" t="s">
         <v>22</v>
@@ -18720,7 +18698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>329</v>
       </c>
@@ -18751,9 +18729,8 @@
       <c r="J134" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="K134" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K134" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L134" s="0" t="s">
         <v>22</v>
@@ -18762,7 +18739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>330</v>
       </c>
@@ -18793,9 +18770,8 @@
       <c r="J135" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="K135" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K135" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L135" s="0" t="s">
         <v>22</v>
@@ -18804,7 +18780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>330</v>
       </c>
@@ -18835,9 +18811,8 @@
       <c r="J136" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="K136" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K136" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L136" s="0" t="s">
         <v>22</v>
@@ -18846,7 +18821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>330</v>
       </c>
@@ -18877,9 +18852,8 @@
       <c r="J137" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="K137" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K137" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L137" s="0" t="s">
         <v>22</v>
@@ -18888,7 +18862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>338</v>
       </c>
@@ -18919,9 +18893,8 @@
       <c r="J138" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="K138" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K138" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L138" s="0" t="s">
         <v>22</v>
@@ -18930,7 +18903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>338</v>
       </c>
@@ -18961,9 +18934,8 @@
       <c r="J139" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="K139" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K139" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L139" s="0" t="s">
         <v>22</v>
@@ -18972,7 +18944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>338</v>
       </c>
@@ -19003,9 +18975,8 @@
       <c r="J140" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="K140" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K140" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L140" s="0" t="s">
         <v>22</v>
@@ -19014,7 +18985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>346</v>
       </c>
@@ -19045,9 +19016,8 @@
       <c r="J141" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="K141" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K141" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L141" s="0" t="s">
         <v>22</v>
@@ -19056,7 +19026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>346</v>
       </c>
@@ -19087,9 +19057,8 @@
       <c r="J142" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="K142" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K142" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L142" s="0" t="s">
         <v>22</v>
@@ -19098,7 +19067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>346</v>
       </c>
@@ -19129,9 +19098,8 @@
       <c r="J143" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="K143" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K143" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L143" s="0" t="s">
         <v>22</v>
@@ -19140,7 +19108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>354</v>
       </c>
@@ -19171,9 +19139,8 @@
       <c r="J144" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="K144" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K144" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L144" s="0" t="s">
         <v>22</v>
@@ -19182,7 +19149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>354</v>
       </c>
@@ -19213,9 +19180,8 @@
       <c r="J145" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="K145" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K145" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L145" s="0" t="s">
         <v>22</v>
@@ -19224,7 +19190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="85.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="85.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>354</v>
       </c>
@@ -19255,9 +19221,8 @@
       <c r="J146" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="K146" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K146" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L146" s="0" t="s">
         <v>22</v>
@@ -19266,7 +19231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>362</v>
       </c>
@@ -19297,9 +19262,8 @@
       <c r="J147" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="K147" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K147" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L147" s="0" t="s">
         <v>22</v>
@@ -19308,7 +19272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>362</v>
       </c>
@@ -19339,9 +19303,8 @@
       <c r="J148" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="K148" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K148" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L148" s="0" t="s">
         <v>22</v>
@@ -19350,7 +19313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>362</v>
       </c>
@@ -19381,9 +19344,8 @@
       <c r="J149" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="K149" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K149" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L149" s="0" t="s">
         <v>22</v>
@@ -19392,7 +19354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>369</v>
       </c>
@@ -19423,9 +19385,8 @@
       <c r="J150" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="K150" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K150" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L150" s="0" t="s">
         <v>22</v>
@@ -19434,7 +19395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>369</v>
       </c>
@@ -19465,9 +19426,8 @@
       <c r="J151" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="K151" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K151" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L151" s="0" t="s">
         <v>22</v>
@@ -19476,7 +19436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>369</v>
       </c>
@@ -19507,9 +19467,8 @@
       <c r="J152" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="K152" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K152" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L152" s="0" t="s">
         <v>22</v>
@@ -19518,7 +19477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>372</v>
       </c>
@@ -19549,9 +19508,8 @@
       <c r="J153" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="K153" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K153" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L153" s="0" t="s">
         <v>22</v>
@@ -19560,7 +19518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>372</v>
       </c>
@@ -19591,9 +19549,8 @@
       <c r="J154" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="K154" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K154" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L154" s="0" t="s">
         <v>22</v>
@@ -19602,7 +19559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="40.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="40.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>372</v>
       </c>
@@ -19633,9 +19590,8 @@
       <c r="J155" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="K155" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K155" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L155" s="0" t="s">
         <v>22</v>
@@ -19644,7 +19600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>377</v>
       </c>
@@ -19675,9 +19631,8 @@
       <c r="J156" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="K156" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K156" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L156" s="0" t="s">
         <v>22</v>
@@ -19686,7 +19641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>377</v>
       </c>
@@ -19717,9 +19672,8 @@
       <c r="J157" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="K157" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K157" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L157" s="0" t="s">
         <v>22</v>
@@ -19728,7 +19682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="40.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="40.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>377</v>
       </c>
@@ -19759,9 +19713,8 @@
       <c r="J158" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="K158" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K158" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L158" s="0" t="s">
         <v>22</v>
@@ -19770,7 +19723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>379</v>
       </c>
@@ -19801,9 +19754,8 @@
       <c r="J159" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="K159" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K159" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L159" s="0" t="s">
         <v>22</v>
@@ -19812,7 +19764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>379</v>
       </c>
@@ -19843,9 +19795,8 @@
       <c r="J160" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="K160" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K160" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L160" s="0" t="s">
         <v>22</v>
@@ -19854,7 +19805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>379</v>
       </c>
@@ -19885,9 +19836,8 @@
       <c r="J161" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="K161" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K161" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L161" s="0" t="s">
         <v>22</v>
@@ -19896,7 +19846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>387</v>
       </c>
@@ -19927,9 +19877,8 @@
       <c r="J162" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="K162" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K162" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L162" s="0" t="s">
         <v>22</v>
@@ -19938,7 +19887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>387</v>
       </c>
@@ -19969,9 +19918,8 @@
       <c r="J163" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="K163" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K163" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L163" s="0" t="s">
         <v>22</v>
@@ -19980,7 +19928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="43.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>387</v>
       </c>
@@ -20011,9 +19959,8 @@
       <c r="J164" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="K164" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K164" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L164" s="0" t="s">
         <v>22</v>
@@ -20022,7 +19969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>395</v>
       </c>
@@ -20053,9 +20000,8 @@
       <c r="J165" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="K165" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K165" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L165" s="0" t="s">
         <v>22</v>
@@ -20064,7 +20010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>395</v>
       </c>
@@ -20095,9 +20041,8 @@
       <c r="J166" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="K166" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K166" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L166" s="0" t="s">
         <v>22</v>
@@ -20106,7 +20051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="43.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>395</v>
       </c>
@@ -20137,9 +20082,8 @@
       <c r="J167" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="K167" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K167" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L167" s="0" t="s">
         <v>22</v>
@@ -20148,7 +20092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>403</v>
       </c>
@@ -20179,9 +20123,8 @@
       <c r="J168" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="K168" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K168" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L168" s="0" t="s">
         <v>22</v>
@@ -20190,7 +20133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>403</v>
       </c>
@@ -20221,9 +20164,8 @@
       <c r="J169" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="K169" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K169" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L169" s="0" t="s">
         <v>22</v>
@@ -20232,7 +20174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>403</v>
       </c>
@@ -20263,9 +20205,8 @@
       <c r="J170" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="K170" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K170" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L170" s="0" t="s">
         <v>22</v>
@@ -20274,7 +20215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>410</v>
       </c>
@@ -20305,9 +20246,8 @@
       <c r="J171" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="K171" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K171" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L171" s="0" t="s">
         <v>22</v>
@@ -20316,7 +20256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>410</v>
       </c>
@@ -20347,9 +20287,8 @@
       <c r="J172" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="K172" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K172" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L172" s="0" t="s">
         <v>22</v>
@@ -20358,7 +20297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>410</v>
       </c>
@@ -20389,9 +20328,8 @@
       <c r="J173" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="K173" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K173" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L173" s="0" t="s">
         <v>22</v>
@@ -20400,7 +20338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>420</v>
       </c>
@@ -20431,9 +20369,8 @@
       <c r="J174" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="K174" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K174" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L174" s="0" t="s">
         <v>22</v>
@@ -20442,7 +20379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>420</v>
       </c>
@@ -20473,9 +20410,8 @@
       <c r="J175" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="K175" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K175" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L175" s="0" t="s">
         <v>22</v>
@@ -20484,7 +20420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>420</v>
       </c>
@@ -20515,9 +20451,8 @@
       <c r="J176" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="K176" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K176" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L176" s="0" t="s">
         <v>22</v>
@@ -20526,7 +20461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>426</v>
       </c>
@@ -20557,9 +20492,8 @@
       <c r="J177" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="K177" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K177" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L177" s="0" t="s">
         <v>22</v>
@@ -20568,7 +20502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>426</v>
       </c>
@@ -20599,9 +20533,8 @@
       <c r="J178" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="K178" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K178" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L178" s="0" t="s">
         <v>22</v>
@@ -20610,7 +20543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>426</v>
       </c>
@@ -20641,9 +20574,8 @@
       <c r="J179" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="K179" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K179" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L179" s="0" t="s">
         <v>22</v>
@@ -20652,7 +20584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>434</v>
       </c>
@@ -20683,9 +20615,8 @@
       <c r="J180" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="K180" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K180" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L180" s="0" t="s">
         <v>22</v>
@@ -20694,7 +20625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>434</v>
       </c>
@@ -20725,9 +20656,8 @@
       <c r="J181" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="K181" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K181" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L181" s="0" t="s">
         <v>22</v>
@@ -20736,7 +20666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>434</v>
       </c>
@@ -20767,9 +20697,8 @@
       <c r="J182" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="K182" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K182" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L182" s="0" t="s">
         <v>22</v>
@@ -20778,7 +20707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>442</v>
       </c>
@@ -20809,9 +20738,8 @@
       <c r="J183" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="K183" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K183" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L183" s="0" t="s">
         <v>22</v>
@@ -20820,7 +20748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>442</v>
       </c>
@@ -20851,9 +20779,8 @@
       <c r="J184" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="K184" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K184" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L184" s="0" t="s">
         <v>22</v>
@@ -20862,7 +20789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>442</v>
       </c>
@@ -20893,9 +20820,8 @@
       <c r="J185" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="K185" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K185" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L185" s="0" t="s">
         <v>22</v>
@@ -20904,7 +20830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>452</v>
       </c>
@@ -20935,9 +20861,8 @@
       <c r="J186" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="K186" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K186" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L186" s="0" t="s">
         <v>22</v>
@@ -20946,7 +20871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>452</v>
       </c>
@@ -20977,9 +20902,8 @@
       <c r="J187" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="K187" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K187" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L187" s="0" t="s">
         <v>22</v>
@@ -20988,7 +20912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>452</v>
       </c>
@@ -21019,9 +20943,8 @@
       <c r="J188" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="K188" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K188" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L188" s="0" t="s">
         <v>22</v>
@@ -21030,7 +20953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>457</v>
       </c>
@@ -21061,9 +20984,8 @@
       <c r="J189" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="K189" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K189" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L189" s="0" t="s">
         <v>22</v>
@@ -21072,7 +20994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>457</v>
       </c>
@@ -21103,9 +21025,8 @@
       <c r="J190" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="K190" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K190" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L190" s="0" t="s">
         <v>22</v>
@@ -21114,7 +21035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>457</v>
       </c>
@@ -21145,9 +21066,8 @@
       <c r="J191" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="K191" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K191" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L191" s="0" t="s">
         <v>22</v>
@@ -21156,7 +21076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>465</v>
       </c>
@@ -21187,9 +21107,8 @@
       <c r="J192" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="K192" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K192" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L192" s="0" t="s">
         <v>22</v>
@@ -21198,7 +21117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>465</v>
       </c>
@@ -21229,9 +21148,8 @@
       <c r="J193" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="K193" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K193" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L193" s="0" t="s">
         <v>22</v>
@@ -21240,7 +21158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>465</v>
       </c>
@@ -21271,9 +21189,8 @@
       <c r="J194" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="K194" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K194" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L194" s="0" t="s">
         <v>22</v>
@@ -21282,7 +21199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>473</v>
       </c>
@@ -21313,9 +21230,8 @@
       <c r="J195" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="K195" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K195" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L195" s="0" t="s">
         <v>22</v>
@@ -21324,7 +21240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>473</v>
       </c>
@@ -21355,9 +21271,8 @@
       <c r="J196" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="K196" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K196" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L196" s="0" t="s">
         <v>22</v>
@@ -21366,7 +21281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>473</v>
       </c>
@@ -21397,9 +21312,8 @@
       <c r="J197" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="K197" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K197" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L197" s="0" t="s">
         <v>22</v>
@@ -21408,7 +21322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>478</v>
       </c>
@@ -21439,9 +21353,8 @@
       <c r="J198" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="K198" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K198" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L198" s="0" t="s">
         <v>22</v>
@@ -21450,7 +21363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>478</v>
       </c>
@@ -21481,9 +21394,8 @@
       <c r="J199" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="K199" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K199" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L199" s="0" t="s">
         <v>22</v>
@@ -21492,7 +21404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>478</v>
       </c>
@@ -21523,9 +21435,8 @@
       <c r="J200" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="K200" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K200" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L200" s="0" t="s">
         <v>22</v>
@@ -21534,7 +21445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>486</v>
       </c>
@@ -21565,9 +21476,8 @@
       <c r="J201" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="K201" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K201" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L201" s="0" t="s">
         <v>22</v>
@@ -21576,7 +21486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>486</v>
       </c>
@@ -21607,9 +21517,8 @@
       <c r="J202" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="K202" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K202" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L202" s="0" t="s">
         <v>22</v>
@@ -21618,7 +21527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>486</v>
       </c>
@@ -21649,9 +21558,8 @@
       <c r="J203" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="K203" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K203" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L203" s="0" t="s">
         <v>22</v>
@@ -21660,7 +21568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>494</v>
       </c>
@@ -21691,9 +21599,8 @@
       <c r="J204" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="K204" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K204" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L204" s="0" t="s">
         <v>22</v>
@@ -21702,7 +21609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>494</v>
       </c>
@@ -21733,9 +21640,8 @@
       <c r="J205" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="K205" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K205" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L205" s="0" t="s">
         <v>22</v>
@@ -21744,7 +21650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>494</v>
       </c>
@@ -21775,9 +21681,8 @@
       <c r="J206" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="K206" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K206" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L206" s="0" t="s">
         <v>22</v>
@@ -21786,7 +21691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>499</v>
       </c>
@@ -21817,9 +21722,8 @@
       <c r="J207" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="K207" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K207" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L207" s="0" t="s">
         <v>22</v>
@@ -21828,7 +21732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>499</v>
       </c>
@@ -21859,9 +21763,8 @@
       <c r="J208" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="K208" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K208" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L208" s="0" t="s">
         <v>22</v>
@@ -21870,7 +21773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>499</v>
       </c>
@@ -21901,9 +21804,8 @@
       <c r="J209" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="K209" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K209" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L209" s="0" t="s">
         <v>22</v>
@@ -21912,7 +21814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>507</v>
       </c>
@@ -21943,9 +21845,8 @@
       <c r="J210" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="K210" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K210" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L210" s="0" t="s">
         <v>22</v>
@@ -21954,7 +21855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>507</v>
       </c>
@@ -21985,9 +21886,8 @@
       <c r="J211" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="K211" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K211" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L211" s="0" t="s">
         <v>22</v>
@@ -21996,7 +21896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="26.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="26.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>507</v>
       </c>
@@ -22027,9 +21927,8 @@
       <c r="J212" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="K212" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K212" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L212" s="0" t="s">
         <v>22</v>
@@ -22038,7 +21937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>515</v>
       </c>
@@ -22069,9 +21968,8 @@
       <c r="J213" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="K213" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K213" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L213" s="0" t="s">
         <v>22</v>
@@ -22080,7 +21978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>515</v>
       </c>
@@ -22111,9 +22009,8 @@
       <c r="J214" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="K214" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K214" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L214" s="0" t="s">
         <v>22</v>
@@ -22122,7 +22019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>515</v>
       </c>
@@ -22153,9 +22050,8 @@
       <c r="J215" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="K215" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K215" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L215" s="0" t="s">
         <v>22</v>
@@ -22164,7 +22060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>520</v>
       </c>
@@ -22195,9 +22091,8 @@
       <c r="J216" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="K216" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K216" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L216" s="0" t="s">
         <v>22</v>
@@ -22206,7 +22101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>520</v>
       </c>
@@ -22237,9 +22132,8 @@
       <c r="J217" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="K217" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K217" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L217" s="0" t="s">
         <v>22</v>
@@ -22248,7 +22142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>520</v>
       </c>
@@ -22279,9 +22173,8 @@
       <c r="J218" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="K218" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K218" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L218" s="0" t="s">
         <v>22</v>
@@ -22290,7 +22183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>528</v>
       </c>
@@ -22321,9 +22214,8 @@
       <c r="J219" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="K219" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K219" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L219" s="0" t="s">
         <v>22</v>
@@ -22332,7 +22224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>528</v>
       </c>
@@ -22363,9 +22255,8 @@
       <c r="J220" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="K220" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K220" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L220" s="0" t="s">
         <v>22</v>
@@ -22374,7 +22265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="26.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="26.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>528</v>
       </c>
@@ -22405,9 +22296,8 @@
       <c r="J221" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="K221" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K221" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L221" s="0" t="s">
         <v>22</v>
@@ -22416,7 +22306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>536</v>
       </c>
@@ -22447,9 +22337,8 @@
       <c r="J222" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="K222" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K222" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L222" s="0" t="s">
         <v>22</v>
@@ -22458,7 +22347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>536</v>
       </c>
@@ -22489,9 +22378,8 @@
       <c r="J223" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="K223" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K223" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L223" s="0" t="s">
         <v>22</v>
@@ -22500,7 +22388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>536</v>
       </c>
@@ -22531,9 +22419,8 @@
       <c r="J224" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="K224" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K224" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L224" s="0" t="s">
         <v>22</v>
@@ -22542,7 +22429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>541</v>
       </c>
@@ -22573,9 +22460,8 @@
       <c r="J225" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="K225" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K225" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L225" s="0" t="s">
         <v>22</v>
@@ -22584,7 +22470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>541</v>
       </c>
@@ -22615,9 +22501,8 @@
       <c r="J226" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="K226" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K226" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L226" s="0" t="s">
         <v>22</v>
@@ -22626,7 +22511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>541</v>
       </c>
@@ -22657,9 +22542,8 @@
       <c r="J227" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="K227" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K227" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L227" s="0" t="s">
         <v>22</v>
@@ -22668,7 +22552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>549</v>
       </c>
@@ -22699,9 +22583,8 @@
       <c r="J228" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="K228" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K228" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L228" s="0" t="s">
         <v>22</v>
@@ -22710,7 +22593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>549</v>
       </c>
@@ -22741,9 +22624,8 @@
       <c r="J229" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="K229" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K229" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L229" s="0" t="s">
         <v>22</v>
@@ -22752,7 +22634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>549</v>
       </c>
@@ -22783,9 +22665,8 @@
       <c r="J230" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="K230" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K230" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L230" s="0" t="s">
         <v>22</v>
@@ -22794,7 +22675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>557</v>
       </c>
@@ -22825,9 +22706,8 @@
       <c r="J231" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="K231" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K231" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L231" s="0" t="s">
         <v>22</v>
@@ -22836,7 +22716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>557</v>
       </c>
@@ -22867,9 +22747,8 @@
       <c r="J232" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="K232" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K232" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L232" s="0" t="s">
         <v>22</v>
@@ -22878,7 +22757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>557</v>
       </c>
@@ -22909,9 +22788,8 @@
       <c r="J233" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="K233" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K233" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L233" s="0" t="s">
         <v>22</v>
@@ -22920,7 +22798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>562</v>
       </c>
@@ -22951,9 +22829,8 @@
       <c r="J234" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="K234" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K234" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L234" s="0" t="s">
         <v>22</v>
@@ -22962,7 +22839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>562</v>
       </c>
@@ -22993,9 +22870,8 @@
       <c r="J235" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="K235" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K235" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L235" s="0" t="s">
         <v>22</v>
@@ -23004,7 +22880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>562</v>
       </c>
@@ -23035,9 +22911,8 @@
       <c r="J236" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="K236" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K236" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L236" s="0" t="s">
         <v>22</v>
@@ -23046,7 +22921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>570</v>
       </c>
@@ -23077,9 +22952,8 @@
       <c r="J237" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="K237" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K237" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L237" s="0" t="s">
         <v>22</v>
@@ -23088,7 +22962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>570</v>
       </c>
@@ -23119,9 +22993,8 @@
       <c r="J238" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="K238" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K238" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L238" s="0" t="s">
         <v>22</v>
@@ -23130,7 +23003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>570</v>
       </c>
@@ -23161,9 +23034,8 @@
       <c r="J239" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="K239" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K239" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L239" s="0" t="s">
         <v>22</v>
@@ -23172,7 +23044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>578</v>
       </c>
@@ -23203,9 +23075,8 @@
       <c r="J240" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="K240" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K240" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L240" s="0" t="s">
         <v>22</v>
@@ -23214,7 +23085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>578</v>
       </c>
@@ -23245,9 +23116,8 @@
       <c r="J241" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="K241" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K241" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L241" s="0" t="s">
         <v>22</v>
@@ -23256,7 +23126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>578</v>
       </c>
@@ -23287,9 +23157,8 @@
       <c r="J242" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="K242" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K242" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L242" s="0" t="s">
         <v>22</v>
@@ -23298,7 +23167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>585</v>
       </c>
@@ -23329,9 +23198,8 @@
       <c r="J243" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="K243" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K243" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L243" s="0" t="s">
         <v>22</v>
@@ -23340,7 +23208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>585</v>
       </c>
@@ -23371,9 +23239,8 @@
       <c r="J244" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="K244" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K244" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L244" s="0" t="s">
         <v>22</v>
@@ -23382,7 +23249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>585</v>
       </c>
@@ -23413,9 +23280,8 @@
       <c r="J245" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="K245" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K245" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L245" s="0" t="s">
         <v>22</v>
@@ -23424,7 +23290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>593</v>
       </c>
@@ -23455,9 +23321,8 @@
       <c r="J246" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="K246" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K246" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L246" s="0" t="s">
         <v>22</v>
@@ -23466,7 +23331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>593</v>
       </c>
@@ -23497,9 +23362,8 @@
       <c r="J247" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="K247" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K247" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L247" s="0" t="s">
         <v>22</v>
@@ -23508,7 +23372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="26.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="26.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>593</v>
       </c>
@@ -23539,9 +23403,8 @@
       <c r="J248" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="K248" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K248" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L248" s="0" t="s">
         <v>22</v>
@@ -23550,7 +23413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>601</v>
       </c>
@@ -23581,9 +23444,8 @@
       <c r="J249" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="K249" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K249" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L249" s="0" t="s">
         <v>22</v>
@@ -23592,7 +23454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>601</v>
       </c>
@@ -23623,9 +23485,8 @@
       <c r="J250" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="K250" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K250" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L250" s="0" t="s">
         <v>22</v>
@@ -23634,7 +23495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>601</v>
       </c>
@@ -23665,9 +23526,8 @@
       <c r="J251" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="K251" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K251" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L251" s="0" t="s">
         <v>22</v>
@@ -23676,7 +23536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>606</v>
       </c>
@@ -23707,9 +23567,8 @@
       <c r="J252" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="K252" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K252" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L252" s="0" t="s">
         <v>22</v>
@@ -23718,7 +23577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>606</v>
       </c>
@@ -23749,9 +23608,8 @@
       <c r="J253" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="K253" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K253" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L253" s="0" t="s">
         <v>22</v>
@@ -23760,7 +23618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>606</v>
       </c>
@@ -23791,9 +23649,8 @@
       <c r="J254" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="K254" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K254" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L254" s="0" t="s">
         <v>22</v>
@@ -23802,7 +23659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>614</v>
       </c>
@@ -23833,9 +23690,8 @@
       <c r="J255" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="K255" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K255" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L255" s="0" t="s">
         <v>22</v>
@@ -23844,7 +23700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>614</v>
       </c>
@@ -23875,9 +23731,8 @@
       <c r="J256" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="K256" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K256" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L256" s="0" t="s">
         <v>22</v>
@@ -23886,7 +23741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>614</v>
       </c>
@@ -23917,9 +23772,8 @@
       <c r="J257" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="K257" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K257" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L257" s="0" t="s">
         <v>22</v>
@@ -23928,7 +23782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>622</v>
       </c>
@@ -23959,9 +23813,8 @@
       <c r="J258" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="K258" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K258" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L258" s="0" t="s">
         <v>22</v>
@@ -23970,7 +23823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>622</v>
       </c>
@@ -24001,9 +23854,8 @@
       <c r="J259" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="K259" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K259" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L259" s="0" t="s">
         <v>22</v>
@@ -24012,7 +23864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>622</v>
       </c>
@@ -24043,9 +23895,8 @@
       <c r="J260" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="K260" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K260" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L260" s="0" t="s">
         <v>22</v>
@@ -24054,7 +23905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>627</v>
       </c>
@@ -24085,9 +23936,8 @@
       <c r="J261" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="K261" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K261" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L261" s="0" t="s">
         <v>22</v>
@@ -24096,7 +23946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>627</v>
       </c>
@@ -24127,9 +23977,8 @@
       <c r="J262" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="K262" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K262" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L262" s="0" t="s">
         <v>22</v>
@@ -24138,7 +23987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>627</v>
       </c>
@@ -24169,9 +24018,8 @@
       <c r="J263" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="K263" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K263" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L263" s="0" t="s">
         <v>22</v>
@@ -24180,7 +24028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>635</v>
       </c>
@@ -24211,9 +24059,8 @@
       <c r="J264" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="K264" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K264" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L264" s="0" t="s">
         <v>22</v>
@@ -24222,7 +24069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>635</v>
       </c>
@@ -24253,9 +24100,8 @@
       <c r="J265" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="K265" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K265" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L265" s="0" t="s">
         <v>22</v>
@@ -24264,7 +24110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>635</v>
       </c>
@@ -24295,9 +24141,8 @@
       <c r="J266" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="K266" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K266" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L266" s="0" t="s">
         <v>22</v>
@@ -24306,7 +24151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>643</v>
       </c>
@@ -24337,9 +24182,8 @@
       <c r="J267" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="K267" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K267" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L267" s="0" t="s">
         <v>22</v>
@@ -24348,7 +24192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>643</v>
       </c>
@@ -24379,9 +24223,8 @@
       <c r="J268" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="K268" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K268" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L268" s="0" t="s">
         <v>22</v>
@@ -24390,7 +24233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>643</v>
       </c>
@@ -24421,9 +24264,8 @@
       <c r="J269" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="K269" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K269" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L269" s="0" t="s">
         <v>22</v>
@@ -24432,7 +24274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>648</v>
       </c>
@@ -24463,9 +24305,8 @@
       <c r="J270" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="K270" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K270" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L270" s="0" t="s">
         <v>22</v>
@@ -24474,7 +24315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>648</v>
       </c>
@@ -24505,9 +24346,8 @@
       <c r="J271" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="K271" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K271" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L271" s="0" t="s">
         <v>22</v>
@@ -24516,7 +24356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>648</v>
       </c>
@@ -24547,9 +24387,8 @@
       <c r="J272" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="K272" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K272" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L272" s="0" t="s">
         <v>22</v>
@@ -24558,7 +24397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>656</v>
       </c>
@@ -24589,9 +24428,8 @@
       <c r="J273" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="K273" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K273" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L273" s="0" t="s">
         <v>22</v>
@@ -24600,7 +24438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>656</v>
       </c>
@@ -24631,9 +24469,8 @@
       <c r="J274" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="K274" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K274" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L274" s="0" t="s">
         <v>22</v>
@@ -24642,7 +24479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>656</v>
       </c>
@@ -24673,9 +24510,8 @@
       <c r="J275" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="K275" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K275" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L275" s="0" t="s">
         <v>22</v>
@@ -24684,7 +24520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>664</v>
       </c>
@@ -24715,9 +24551,8 @@
       <c r="J276" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="K276" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K276" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L276" s="0" t="s">
         <v>22</v>
@@ -24726,7 +24561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>664</v>
       </c>
@@ -24757,9 +24592,8 @@
       <c r="J277" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="K277" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K277" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L277" s="0" t="s">
         <v>22</v>
@@ -24768,7 +24602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>664</v>
       </c>
@@ -24799,9 +24633,8 @@
       <c r="J278" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="K278" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K278" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L278" s="0" t="s">
         <v>22</v>
@@ -24810,7 +24643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>669</v>
       </c>
@@ -24841,9 +24674,8 @@
       <c r="J279" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="K279" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K279" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L279" s="0" t="s">
         <v>22</v>
@@ -24852,7 +24684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>669</v>
       </c>
@@ -24883,9 +24715,8 @@
       <c r="J280" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="K280" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K280" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L280" s="0" t="s">
         <v>22</v>
@@ -24894,7 +24725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>669</v>
       </c>
@@ -24925,9 +24756,8 @@
       <c r="J281" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="K281" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K281" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L281" s="0" t="s">
         <v>22</v>
@@ -24936,7 +24766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>677</v>
       </c>
@@ -24967,9 +24797,8 @@
       <c r="J282" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="K282" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K282" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L282" s="0" t="s">
         <v>22</v>
@@ -24978,7 +24807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>677</v>
       </c>
@@ -25009,9 +24838,8 @@
       <c r="J283" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="K283" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K283" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L283" s="0" t="s">
         <v>22</v>
@@ -25020,7 +24848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="22.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>677</v>
       </c>
@@ -25051,9 +24879,8 @@
       <c r="J284" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="K284" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K284" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L284" s="0" t="s">
         <v>22</v>
@@ -25062,7 +24889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>683</v>
       </c>
@@ -25093,9 +24920,8 @@
       <c r="J285" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="K285" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K285" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L285" s="0" t="s">
         <v>22</v>
@@ -25104,7 +24930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>683</v>
       </c>
@@ -25135,9 +24961,8 @@
       <c r="J286" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="K286" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K286" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L286" s="0" t="s">
         <v>22</v>
@@ -25146,7 +24971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>683</v>
       </c>
@@ -25177,9 +25002,8 @@
       <c r="J287" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="K287" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K287" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L287" s="0" t="s">
         <v>22</v>
@@ -25188,7 +25012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>688</v>
       </c>
@@ -25219,9 +25043,8 @@
       <c r="J288" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="K288" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K288" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L288" s="0" t="s">
         <v>22</v>
@@ -25230,7 +25053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>688</v>
       </c>
@@ -25261,9 +25084,8 @@
       <c r="J289" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="K289" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K289" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L289" s="0" t="s">
         <v>22</v>
@@ -25272,7 +25094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>688</v>
       </c>
@@ -25303,9 +25125,8 @@
       <c r="J290" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="K290" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K290" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L290" s="0" t="s">
         <v>22</v>
@@ -25314,7 +25135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>696</v>
       </c>
@@ -25345,9 +25166,8 @@
       <c r="J291" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="K291" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K291" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L291" s="0" t="s">
         <v>22</v>
@@ -25356,7 +25176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>696</v>
       </c>
@@ -25387,9 +25207,8 @@
       <c r="J292" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="K292" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K292" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L292" s="0" t="s">
         <v>22</v>
@@ -25398,7 +25217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="26.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="26.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>696</v>
       </c>
@@ -25429,9 +25248,8 @@
       <c r="J293" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="K293" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K293" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L293" s="0" t="s">
         <v>22</v>
@@ -25440,7 +25258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>704</v>
       </c>
@@ -25471,9 +25289,8 @@
       <c r="J294" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="K294" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K294" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L294" s="0" t="s">
         <v>22</v>
@@ -25482,7 +25299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>704</v>
       </c>
@@ -25513,9 +25330,8 @@
       <c r="J295" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="K295" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K295" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L295" s="0" t="s">
         <v>22</v>
@@ -25524,7 +25340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>704</v>
       </c>
@@ -25555,9 +25371,8 @@
       <c r="J296" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="K296" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K296" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L296" s="0" t="s">
         <v>22</v>
@@ -25566,7 +25381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>709</v>
       </c>
@@ -25597,9 +25412,8 @@
       <c r="J297" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="K297" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K297" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L297" s="0" t="s">
         <v>22</v>
@@ -25608,7 +25422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>709</v>
       </c>
@@ -25639,9 +25453,8 @@
       <c r="J298" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="K298" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K298" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L298" s="0" t="s">
         <v>22</v>
@@ -25650,7 +25463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>709</v>
       </c>
@@ -25681,9 +25494,8 @@
       <c r="J299" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="K299" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K299" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L299" s="0" t="s">
         <v>22</v>
@@ -25692,7 +25504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>717</v>
       </c>
@@ -25723,9 +25535,8 @@
       <c r="J300" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="K300" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K300" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L300" s="0" t="s">
         <v>22</v>
@@ -25734,7 +25545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>717</v>
       </c>
@@ -25765,9 +25576,8 @@
       <c r="J301" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="K301" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K301" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L301" s="0" t="s">
         <v>22</v>
@@ -25776,7 +25586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>717</v>
       </c>
@@ -25807,9 +25617,8 @@
       <c r="J302" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="K302" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K302" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L302" s="0" t="s">
         <v>22</v>
@@ -25818,7 +25627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>725</v>
       </c>
@@ -25849,9 +25658,8 @@
       <c r="J303" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="K303" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K303" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L303" s="0" t="s">
         <v>22</v>
@@ -25860,7 +25668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>725</v>
       </c>
@@ -25891,9 +25699,8 @@
       <c r="J304" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="K304" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K304" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L304" s="0" t="s">
         <v>22</v>
@@ -25902,7 +25709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>725</v>
       </c>
@@ -25933,9 +25740,8 @@
       <c r="J305" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="K305" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K305" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L305" s="0" t="s">
         <v>22</v>
@@ -25944,7 +25750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>730</v>
       </c>
@@ -25975,9 +25781,8 @@
       <c r="J306" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="K306" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K306" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L306" s="0" t="s">
         <v>22</v>
@@ -25986,7 +25791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>730</v>
       </c>
@@ -26017,9 +25822,8 @@
       <c r="J307" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="K307" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K307" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L307" s="0" t="s">
         <v>22</v>
@@ -26028,7 +25832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="43.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>730</v>
       </c>
@@ -26059,9 +25863,8 @@
       <c r="J308" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="K308" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K308" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L308" s="0" t="s">
         <v>22</v>
@@ -26070,7 +25873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>738</v>
       </c>
@@ -26101,9 +25904,8 @@
       <c r="J309" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="K309" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K309" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L309" s="0" t="s">
         <v>22</v>
@@ -26112,7 +25914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>738</v>
       </c>
@@ -26143,9 +25945,8 @@
       <c r="J310" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="K310" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K310" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L310" s="0" t="s">
         <v>22</v>
@@ -26154,7 +25955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>738</v>
       </c>
@@ -26185,9 +25986,8 @@
       <c r="J311" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="K311" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K311" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L311" s="0" t="s">
         <v>22</v>
@@ -26196,7 +25996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>746</v>
       </c>
@@ -26227,9 +26027,8 @@
       <c r="J312" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="K312" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K312" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L312" s="0" t="s">
         <v>22</v>
@@ -26238,7 +26037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>746</v>
       </c>
@@ -26269,9 +26068,8 @@
       <c r="J313" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="K313" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K313" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L313" s="0" t="s">
         <v>22</v>
@@ -26280,7 +26078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="43.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>746</v>
       </c>
@@ -26311,9 +26109,8 @@
       <c r="J314" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="K314" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K314" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L314" s="0" t="s">
         <v>22</v>
@@ -26322,7 +26119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>751</v>
       </c>
@@ -26353,9 +26150,8 @@
       <c r="J315" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="K315" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K315" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L315" s="0" t="s">
         <v>22</v>
@@ -26364,7 +26160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>751</v>
       </c>
@@ -26395,9 +26191,8 @@
       <c r="J316" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="K316" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K316" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L316" s="0" t="s">
         <v>22</v>
@@ -26406,7 +26201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>751</v>
       </c>
@@ -26437,9 +26232,8 @@
       <c r="J317" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="K317" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K317" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L317" s="0" t="s">
         <v>22</v>
@@ -26448,7 +26242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>758</v>
       </c>
@@ -26479,9 +26273,8 @@
       <c r="J318" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="K318" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K318" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L318" s="0" t="s">
         <v>22</v>
@@ -26490,7 +26283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>758</v>
       </c>
@@ -26521,9 +26314,8 @@
       <c r="J319" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="K319" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K319" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L319" s="0" t="s">
         <v>22</v>
@@ -26532,7 +26324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>758</v>
       </c>
@@ -26563,9 +26355,8 @@
       <c r="J320" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="K320" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K320" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L320" s="0" t="s">
         <v>22</v>
@@ -26574,7 +26365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>762</v>
       </c>
@@ -26605,9 +26396,8 @@
       <c r="J321" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="K321" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K321" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L321" s="0" t="s">
         <v>22</v>
@@ -26616,7 +26406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>762</v>
       </c>
@@ -26647,9 +26437,8 @@
       <c r="J322" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="K322" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K322" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L322" s="0" t="s">
         <v>22</v>
@@ -26658,7 +26447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>762</v>
       </c>
@@ -26689,9 +26478,8 @@
       <c r="J323" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="K323" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K323" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L323" s="0" t="s">
         <v>22</v>
@@ -26700,7 +26488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>769</v>
       </c>
@@ -26731,9 +26519,8 @@
       <c r="J324" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="K324" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K324" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L324" s="0" t="s">
         <v>22</v>
@@ -26742,7 +26529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>769</v>
       </c>
@@ -26773,9 +26560,8 @@
       <c r="J325" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="K325" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K325" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L325" s="0" t="s">
         <v>22</v>
@@ -26784,7 +26570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>769</v>
       </c>
@@ -26815,9 +26601,8 @@
       <c r="J326" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="K326" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K326" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L326" s="0" t="s">
         <v>22</v>
@@ -26826,7 +26611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>773</v>
       </c>
@@ -26857,9 +26642,8 @@
       <c r="J327" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="K327" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K327" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L327" s="0" t="s">
         <v>22</v>
@@ -26868,7 +26652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>773</v>
       </c>
@@ -26899,9 +26683,8 @@
       <c r="J328" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="K328" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K328" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L328" s="0" t="s">
         <v>22</v>
@@ -26910,7 +26693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="43.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>773</v>
       </c>
@@ -26941,9 +26724,8 @@
       <c r="J329" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="K329" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K329" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L329" s="0" t="s">
         <v>22</v>
@@ -26952,7 +26734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>780</v>
       </c>
@@ -26983,9 +26765,8 @@
       <c r="J330" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="K330" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K330" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L330" s="0" t="s">
         <v>22</v>
@@ -26994,7 +26775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>780</v>
       </c>
@@ -27025,9 +26806,8 @@
       <c r="J331" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="K331" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K331" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L331" s="0" t="s">
         <v>22</v>
@@ -27036,7 +26816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="43.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>780</v>
       </c>
@@ -27067,9 +26847,8 @@
       <c r="J332" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="K332" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K332" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L332" s="0" t="s">
         <v>22</v>
@@ -27078,7 +26857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>784</v>
       </c>
@@ -27109,9 +26888,8 @@
       <c r="J333" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="K333" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K333" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L333" s="0" t="s">
         <v>22</v>
@@ -27120,7 +26898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>784</v>
       </c>
@@ -27151,9 +26929,8 @@
       <c r="J334" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="K334" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K334" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L334" s="0" t="s">
         <v>22</v>
@@ -27162,7 +26939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>784</v>
       </c>
@@ -27193,9 +26970,8 @@
       <c r="J335" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="K335" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K335" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L335" s="0" t="s">
         <v>22</v>
@@ -27204,7 +26980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>788</v>
       </c>
@@ -27235,9 +27011,8 @@
       <c r="J336" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="K336" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K336" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L336" s="0" t="s">
         <v>22</v>
@@ -27246,7 +27021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>788</v>
       </c>
@@ -27277,9 +27052,8 @@
       <c r="J337" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="K337" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K337" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L337" s="0" t="s">
         <v>22</v>
@@ -27288,7 +27062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
         <v>788</v>
       </c>
@@ -27319,9 +27093,8 @@
       <c r="J338" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="K338" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K338" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L338" s="0" t="s">
         <v>22</v>
@@ -27330,7 +27103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
         <v>792</v>
       </c>
@@ -27361,9 +27134,8 @@
       <c r="J339" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="K339" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K339" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L339" s="0" t="s">
         <v>22</v>
@@ -27372,7 +27144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
         <v>792</v>
       </c>
@@ -27403,9 +27175,8 @@
       <c r="J340" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="K340" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K340" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L340" s="0" t="s">
         <v>22</v>
@@ -27414,7 +27185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>792</v>
       </c>
@@ -27445,9 +27216,8 @@
       <c r="J341" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="K341" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K341" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L341" s="0" t="s">
         <v>22</v>
@@ -27456,7 +27226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>799</v>
       </c>
@@ -27487,9 +27257,8 @@
       <c r="J342" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="K342" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K342" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L342" s="0" t="s">
         <v>22</v>
@@ -27498,7 +27267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
         <v>799</v>
       </c>
@@ -27529,9 +27298,8 @@
       <c r="J343" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="K343" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K343" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L343" s="0" t="s">
         <v>22</v>
@@ -27540,7 +27308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
         <v>799</v>
       </c>
@@ -27571,9 +27339,8 @@
       <c r="J344" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="K344" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K344" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L344" s="0" t="s">
         <v>22</v>
@@ -27582,7 +27349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>803</v>
       </c>
@@ -27613,9 +27380,8 @@
       <c r="J345" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="K345" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K345" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L345" s="0" t="s">
         <v>22</v>
@@ -27624,7 +27390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>803</v>
       </c>
@@ -27655,9 +27421,8 @@
       <c r="J346" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="K346" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K346" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L346" s="0" t="s">
         <v>22</v>
@@ -27666,7 +27431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>803</v>
       </c>
@@ -27697,9 +27462,8 @@
       <c r="J347" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="K347" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K347" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L347" s="0" t="s">
         <v>22</v>
@@ -27708,7 +27472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>810</v>
       </c>
@@ -27739,9 +27503,8 @@
       <c r="J348" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="K348" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K348" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L348" s="0" t="s">
         <v>22</v>
@@ -27750,7 +27513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
         <v>810</v>
       </c>
@@ -27781,9 +27544,8 @@
       <c r="J349" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="K349" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K349" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L349" s="0" t="s">
         <v>22</v>
@@ -27792,7 +27554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
         <v>810</v>
       </c>
@@ -27823,9 +27585,8 @@
       <c r="J350" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="K350" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K350" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L350" s="0" t="s">
         <v>22</v>
@@ -27834,7 +27595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
         <v>814</v>
       </c>
@@ -27865,9 +27626,8 @@
       <c r="J351" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="K351" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K351" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L351" s="0" t="s">
         <v>22</v>
@@ -27876,7 +27636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
         <v>814</v>
       </c>
@@ -27907,9 +27667,8 @@
       <c r="J352" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="K352" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K352" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L352" s="0" t="s">
         <v>22</v>
@@ -27918,7 +27677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
         <v>814</v>
       </c>
@@ -27949,9 +27708,8 @@
       <c r="J353" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="K353" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K353" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L353" s="0" t="s">
         <v>22</v>
@@ -27960,7 +27718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>821</v>
       </c>
@@ -27991,9 +27749,8 @@
       <c r="J354" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="K354" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K354" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L354" s="0" t="s">
         <v>22</v>
@@ -28002,7 +27759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
         <v>821</v>
       </c>
@@ -28033,9 +27790,8 @@
       <c r="J355" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="K355" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K355" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L355" s="0" t="s">
         <v>22</v>
@@ -28044,7 +27800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>821</v>
       </c>
@@ -28075,9 +27831,8 @@
       <c r="J356" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="K356" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K356" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L356" s="0" t="s">
         <v>22</v>
@@ -28086,7 +27841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
         <v>825</v>
       </c>
@@ -28117,9 +27872,8 @@
       <c r="J357" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="K357" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K357" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L357" s="0" t="s">
         <v>22</v>
@@ -28128,7 +27882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
         <v>825</v>
       </c>
@@ -28159,9 +27913,8 @@
       <c r="J358" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="K358" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K358" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L358" s="0" t="s">
         <v>22</v>
@@ -28170,7 +27923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
         <v>825</v>
       </c>
@@ -28201,9 +27954,8 @@
       <c r="J359" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="K359" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K359" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L359" s="0" t="s">
         <v>22</v>
@@ -28212,7 +27964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
         <v>831</v>
       </c>
@@ -28243,9 +27995,8 @@
       <c r="J360" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="K360" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K360" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L360" s="0" t="s">
         <v>22</v>
@@ -28254,7 +28005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
         <v>831</v>
       </c>
@@ -28285,9 +28036,8 @@
       <c r="J361" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="K361" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K361" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L361" s="0" t="s">
         <v>22</v>
@@ -28296,7 +28046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
         <v>831</v>
       </c>
@@ -28327,9 +28077,8 @@
       <c r="J362" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="K362" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K362" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L362" s="0" t="s">
         <v>22</v>
@@ -28338,7 +28087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
         <v>838</v>
       </c>
@@ -28369,9 +28118,8 @@
       <c r="J363" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="K363" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K363" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L363" s="0" t="s">
         <v>22</v>
@@ -28380,7 +28128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
         <v>838</v>
       </c>
@@ -28411,9 +28159,8 @@
       <c r="J364" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="K364" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K364" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L364" s="0" t="s">
         <v>22</v>
@@ -28422,7 +28169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
         <v>838</v>
       </c>
@@ -28453,9 +28200,8 @@
       <c r="J365" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="K365" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K365" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L365" s="0" t="s">
         <v>22</v>
@@ -28464,7 +28210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
         <v>845</v>
       </c>
@@ -28495,9 +28241,8 @@
       <c r="J366" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="K366" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K366" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L366" s="0" t="s">
         <v>22</v>
@@ -28506,7 +28251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
         <v>845</v>
       </c>
@@ -28537,9 +28282,8 @@
       <c r="J367" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="K367" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K367" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L367" s="0" t="s">
         <v>22</v>
@@ -28548,7 +28292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
         <v>845</v>
       </c>
@@ -28579,9 +28323,8 @@
       <c r="J368" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="K368" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K368" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L368" s="0" t="s">
         <v>22</v>
@@ -28590,7 +28333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
         <v>852</v>
       </c>
@@ -28621,9 +28364,8 @@
       <c r="J369" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="K369" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K369" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L369" s="0" t="s">
         <v>22</v>
@@ -28632,7 +28374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
         <v>852</v>
       </c>
@@ -28663,9 +28405,8 @@
       <c r="J370" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="K370" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K370" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L370" s="0" t="s">
         <v>22</v>
@@ -28674,7 +28415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
         <v>852</v>
       </c>
@@ -28705,9 +28446,8 @@
       <c r="J371" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="K371" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K371" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L371" s="0" t="s">
         <v>22</v>
@@ -28716,7 +28456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
         <v>856</v>
       </c>
@@ -28747,9 +28487,8 @@
       <c r="J372" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="K372" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K372" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L372" s="0" t="s">
         <v>22</v>
@@ -28758,7 +28497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
         <v>856</v>
       </c>
@@ -28789,9 +28528,8 @@
       <c r="J373" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="K373" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K373" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L373" s="0" t="s">
         <v>22</v>
@@ -28800,7 +28538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
         <v>856</v>
       </c>
@@ -28831,9 +28569,8 @@
       <c r="J374" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="K374" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K374" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L374" s="0" t="s">
         <v>22</v>
@@ -28842,7 +28579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
         <v>863</v>
       </c>
@@ -28873,9 +28610,8 @@
       <c r="J375" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="K375" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K375" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L375" s="0" t="s">
         <v>22</v>
@@ -28884,7 +28620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
         <v>863</v>
       </c>
@@ -28915,9 +28651,8 @@
       <c r="J376" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="K376" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K376" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L376" s="0" t="s">
         <v>22</v>
@@ -28926,7 +28661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
         <v>863</v>
       </c>
@@ -28957,9 +28692,8 @@
       <c r="J377" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="K377" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K377" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L377" s="0" t="s">
         <v>22</v>
@@ -28968,7 +28702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
         <v>870</v>
       </c>
@@ -28999,9 +28733,8 @@
       <c r="J378" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="K378" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K378" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L378" s="0" t="s">
         <v>22</v>
@@ -29010,7 +28743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
         <v>870</v>
       </c>
@@ -29041,9 +28774,8 @@
       <c r="J379" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="K379" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K379" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L379" s="0" t="s">
         <v>22</v>
@@ -29052,7 +28784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
         <v>870</v>
       </c>
@@ -29083,9 +28815,8 @@
       <c r="J380" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="K380" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K380" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L380" s="0" t="s">
         <v>22</v>
@@ -29094,7 +28825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
         <v>877</v>
       </c>
@@ -29125,9 +28856,8 @@
       <c r="J381" s="0" t="s">
         <v>879</v>
       </c>
-      <c r="K381" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K381" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L381" s="0" t="s">
         <v>22</v>
@@ -29136,7 +28866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
         <v>877</v>
       </c>
@@ -29167,9 +28897,8 @@
       <c r="J382" s="0" t="s">
         <v>879</v>
       </c>
-      <c r="K382" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K382" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L382" s="0" t="s">
         <v>22</v>
@@ -29178,7 +28907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
         <v>877</v>
       </c>
@@ -29209,9 +28938,8 @@
       <c r="J383" s="0" t="s">
         <v>879</v>
       </c>
-      <c r="K383" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K383" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L383" s="0" t="s">
         <v>22</v>
@@ -29220,7 +28948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
         <v>881</v>
       </c>
@@ -29251,9 +28979,8 @@
       <c r="J384" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="K384" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K384" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L384" s="0" t="s">
         <v>22</v>
@@ -29262,7 +28989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
         <v>881</v>
       </c>
@@ -29293,9 +29020,8 @@
       <c r="J385" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="K385" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K385" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L385" s="0" t="s">
         <v>22</v>
@@ -29304,7 +29030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
         <v>881</v>
       </c>
@@ -29335,9 +29061,8 @@
       <c r="J386" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="K386" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K386" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L386" s="0" t="s">
         <v>22</v>
@@ -29346,7 +29071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
         <v>888</v>
       </c>
@@ -29377,9 +29102,8 @@
       <c r="J387" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="K387" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K387" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L387" s="0" t="s">
         <v>22</v>
@@ -29388,7 +29112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
         <v>888</v>
       </c>
@@ -29419,9 +29143,8 @@
       <c r="J388" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="K388" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K388" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L388" s="0" t="s">
         <v>22</v>
@@ -29430,7 +29153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
         <v>888</v>
       </c>
@@ -29461,9 +29184,8 @@
       <c r="J389" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="K389" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K389" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L389" s="0" t="s">
         <v>22</v>
@@ -29472,7 +29194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
         <v>895</v>
       </c>
@@ -29503,9 +29225,8 @@
       <c r="J390" s="0" t="s">
         <v>897</v>
       </c>
-      <c r="K390" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K390" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L390" s="0" t="s">
         <v>22</v>
@@ -29514,7 +29235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
         <v>895</v>
       </c>
@@ -29545,9 +29266,8 @@
       <c r="J391" s="0" t="s">
         <v>897</v>
       </c>
-      <c r="K391" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K391" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L391" s="0" t="s">
         <v>22</v>
@@ -29556,7 +29276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
         <v>895</v>
       </c>
@@ -29587,9 +29307,8 @@
       <c r="J392" s="0" t="s">
         <v>897</v>
       </c>
-      <c r="K392" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K392" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L392" s="0" t="s">
         <v>22</v>
@@ -29598,7 +29317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
         <v>899</v>
       </c>
@@ -29629,9 +29348,8 @@
       <c r="J393" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="K393" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K393" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L393" s="0" t="s">
         <v>22</v>
@@ -29640,7 +29358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
         <v>899</v>
       </c>
@@ -29671,9 +29389,8 @@
       <c r="J394" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="K394" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K394" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L394" s="0" t="s">
         <v>22</v>
@@ -29682,7 +29399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
         <v>899</v>
       </c>
@@ -29713,9 +29430,8 @@
       <c r="J395" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="K395" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K395" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L395" s="0" t="s">
         <v>22</v>
@@ -29724,7 +29440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
         <v>906</v>
       </c>
@@ -29755,9 +29471,8 @@
       <c r="J396" s="0" t="s">
         <v>909</v>
       </c>
-      <c r="K396" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K396" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L396" s="0" t="s">
         <v>22</v>
@@ -29766,7 +29481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
         <v>906</v>
       </c>
@@ -29797,9 +29512,8 @@
       <c r="J397" s="0" t="s">
         <v>909</v>
       </c>
-      <c r="K397" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K397" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L397" s="0" t="s">
         <v>22</v>
@@ -29808,7 +29522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
         <v>906</v>
       </c>
@@ -29839,9 +29553,8 @@
       <c r="J398" s="0" t="s">
         <v>909</v>
       </c>
-      <c r="K398" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K398" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L398" s="0" t="s">
         <v>22</v>
@@ -29850,7 +29563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
         <v>913</v>
       </c>
@@ -29881,9 +29594,8 @@
       <c r="J399" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="K399" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K399" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L399" s="0" t="s">
         <v>22</v>
@@ -29892,7 +29604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
         <v>913</v>
       </c>
@@ -29923,9 +29635,8 @@
       <c r="J400" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="K400" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K400" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L400" s="0" t="s">
         <v>22</v>
@@ -29934,7 +29645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
         <v>913</v>
       </c>
@@ -29965,9 +29676,8 @@
       <c r="J401" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="K401" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K401" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L401" s="0" t="s">
         <v>22</v>
@@ -29976,7 +29686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
         <v>919</v>
       </c>
@@ -30007,9 +29717,8 @@
       <c r="J402" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="K402" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K402" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L402" s="0" t="s">
         <v>22</v>
@@ -30018,7 +29727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
         <v>919</v>
       </c>
@@ -30049,9 +29758,8 @@
       <c r="J403" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="K403" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K403" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L403" s="0" t="s">
         <v>22</v>
@@ -30060,7 +29768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>919</v>
       </c>
@@ -30091,9 +29799,8 @@
       <c r="J404" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="K404" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K404" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L404" s="0" t="s">
         <v>22</v>
@@ -30102,7 +29809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
         <v>926</v>
       </c>
@@ -30133,9 +29840,8 @@
       <c r="J405" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="K405" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K405" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L405" s="0" t="s">
         <v>22</v>
@@ -30144,7 +29850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
         <v>926</v>
       </c>
@@ -30175,9 +29881,8 @@
       <c r="J406" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="K406" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K406" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L406" s="0" t="s">
         <v>22</v>
@@ -30186,7 +29891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
         <v>926</v>
       </c>
@@ -30217,9 +29922,8 @@
       <c r="J407" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="K407" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K407" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L407" s="0" t="s">
         <v>22</v>
@@ -30228,7 +29932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
         <v>933</v>
       </c>
@@ -30259,9 +29963,8 @@
       <c r="J408" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="K408" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K408" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L408" s="0" t="s">
         <v>22</v>
@@ -30270,7 +29973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
         <v>933</v>
       </c>
@@ -30301,9 +30004,8 @@
       <c r="J409" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="K409" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K409" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L409" s="0" t="s">
         <v>22</v>
@@ -30312,7 +30014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>933</v>
       </c>
@@ -30343,9 +30045,8 @@
       <c r="J410" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="K410" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K410" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L410" s="0" t="s">
         <v>22</v>
@@ -30354,7 +30055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
         <v>937</v>
       </c>
@@ -30385,9 +30086,8 @@
       <c r="J411" s="0" t="s">
         <v>940</v>
       </c>
-      <c r="K411" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K411" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L411" s="0" t="s">
         <v>22</v>
@@ -30396,7 +30096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
         <v>937</v>
       </c>
@@ -30427,9 +30127,8 @@
       <c r="J412" s="0" t="s">
         <v>940</v>
       </c>
-      <c r="K412" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K412" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L412" s="0" t="s">
         <v>22</v>
@@ -30438,7 +30137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
         <v>937</v>
       </c>
@@ -30469,9 +30168,8 @@
       <c r="J413" s="0" t="s">
         <v>940</v>
       </c>
-      <c r="K413" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K413" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L413" s="0" t="s">
         <v>22</v>
@@ -30521,8 +30219,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="7" t="n">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="6" t="n">
         <v>1250</v>
       </c>
       <c r="B415" s="0" t="s">
@@ -30552,9 +30250,8 @@
       <c r="J415" s="0" t="s">
         <v>947</v>
       </c>
-      <c r="K415" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K415" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L415" s="0" t="s">
         <v>22</v>
@@ -30563,7 +30260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
         <v>944</v>
       </c>
@@ -30594,9 +30291,8 @@
       <c r="J416" s="0" t="s">
         <v>947</v>
       </c>
-      <c r="K416" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K416" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L416" s="0" t="s">
         <v>22</v>
@@ -30646,8 +30342,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="7" t="n">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="6" t="n">
         <v>1253</v>
       </c>
       <c r="B418" s="0" t="s">
@@ -30677,9 +30373,8 @@
       <c r="J418" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="K418" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K418" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L418" s="0" t="s">
         <v>22</v>
@@ -30688,7 +30383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
         <v>951</v>
       </c>
@@ -30719,9 +30414,8 @@
       <c r="J419" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="K419" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K419" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L419" s="0" t="s">
         <v>22</v>
@@ -30731,7 +30425,7 @@
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="7" t="s">
+      <c r="A420" s="6" t="s">
         <v>960</v>
       </c>
       <c r="B420" s="0" t="s">
@@ -30771,8 +30465,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="7" t="n">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="6" t="n">
         <v>1260</v>
       </c>
       <c r="B421" s="0" t="s">
@@ -30802,9 +30496,8 @@
       <c r="J421" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="K421" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K421" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L421" s="0" t="s">
         <v>22</v>
@@ -30813,8 +30506,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="7" t="s">
+    <row r="422" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="6" t="s">
         <v>960</v>
       </c>
       <c r="B422" s="0" t="s">
@@ -30844,9 +30537,8 @@
       <c r="J422" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="K422" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K422" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L422" s="0" t="s">
         <v>22</v>
@@ -30855,7 +30547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
         <v>968</v>
       </c>
@@ -30886,9 +30578,8 @@
       <c r="J423" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="K423" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K423" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L423" s="0" t="s">
         <v>22</v>
@@ -30897,7 +30588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
         <v>973</v>
       </c>
@@ -30928,9 +30619,8 @@
       <c r="J424" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="K424" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K424" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L424" s="0" t="s">
         <v>22</v>
@@ -30939,7 +30629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
         <v>977</v>
       </c>
@@ -30970,9 +30660,8 @@
       <c r="J425" s="0" t="s">
         <v>978</v>
       </c>
-      <c r="K425" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K425" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L425" s="0" t="s">
         <v>22</v>
@@ -30981,7 +30670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
         <v>981</v>
       </c>
@@ -31012,9 +30701,8 @@
       <c r="J426" s="0" t="s">
         <v>982</v>
       </c>
-      <c r="K426" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K426" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L426" s="0" t="s">
         <v>22</v>
@@ -31023,7 +30711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
         <v>985</v>
       </c>
@@ -31054,9 +30742,8 @@
       <c r="J427" s="0" t="s">
         <v>986</v>
       </c>
-      <c r="K427" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K427" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L427" s="0" t="s">
         <v>22</v>
@@ -31065,7 +30752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
         <v>989</v>
       </c>
@@ -31096,9 +30783,8 @@
       <c r="J428" s="0" t="s">
         <v>990</v>
       </c>
-      <c r="K428" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K428" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L428" s="0" t="s">
         <v>22</v>
@@ -31107,17 +30793,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
         <v>968</v>
       </c>
       <c r="B429" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C429" s="8" t="s">
+      <c r="C429" s="7" t="s">
         <v>993</v>
       </c>
-      <c r="D429" s="8" t="s">
+      <c r="D429" s="7" t="s">
         <v>994</v>
       </c>
       <c r="E429" s="0" t="s">
@@ -31126,7 +30812,7 @@
       <c r="F429" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G429" s="8" t="s">
+      <c r="G429" s="7" t="s">
         <v>995</v>
       </c>
       <c r="H429" s="0" t="n">
@@ -31138,9 +30824,8 @@
       <c r="J429" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="K429" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K429" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L429" s="0" t="s">
         <v>22</v>
@@ -31149,17 +30834,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
         <v>973</v>
       </c>
       <c r="B430" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C430" s="8" t="s">
+      <c r="C430" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="D430" s="8" t="s">
+      <c r="D430" s="7" t="s">
         <v>997</v>
       </c>
       <c r="E430" s="0" t="s">
@@ -31168,7 +30853,7 @@
       <c r="F430" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G430" s="8" t="s">
+      <c r="G430" s="7" t="s">
         <v>998</v>
       </c>
       <c r="H430" s="0" t="n">
@@ -31180,9 +30865,8 @@
       <c r="J430" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="K430" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K430" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L430" s="0" t="s">
         <v>22</v>
@@ -31191,17 +30875,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>977</v>
       </c>
       <c r="B431" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C431" s="8" t="s">
+      <c r="C431" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="D431" s="8" t="s">
+      <c r="D431" s="7" t="s">
         <v>1000</v>
       </c>
       <c r="E431" s="0" t="s">
@@ -31210,7 +30894,7 @@
       <c r="F431" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G431" s="8" t="s">
+      <c r="G431" s="7" t="s">
         <v>1001</v>
       </c>
       <c r="H431" s="0" t="n">
@@ -31222,9 +30906,8 @@
       <c r="J431" s="0" t="s">
         <v>978</v>
       </c>
-      <c r="K431" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K431" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L431" s="0" t="s">
         <v>22</v>
@@ -31233,17 +30916,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
         <v>981</v>
       </c>
       <c r="B432" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C432" s="8" t="s">
+      <c r="C432" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="D432" s="8" t="s">
+      <c r="D432" s="7" t="s">
         <v>1003</v>
       </c>
       <c r="E432" s="0" t="s">
@@ -31252,7 +30935,7 @@
       <c r="F432" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G432" s="8" t="s">
+      <c r="G432" s="7" t="s">
         <v>1004</v>
       </c>
       <c r="H432" s="0" t="n">
@@ -31264,9 +30947,8 @@
       <c r="J432" s="0" t="s">
         <v>982</v>
       </c>
-      <c r="K432" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K432" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L432" s="0" t="s">
         <v>22</v>
@@ -31275,7 +30957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
         <v>985</v>
       </c>
@@ -31285,7 +30967,7 @@
       <c r="C433" s="0" t="s">
         <v>1005</v>
       </c>
-      <c r="D433" s="8" t="s">
+      <c r="D433" s="7" t="s">
         <v>1006</v>
       </c>
       <c r="E433" s="0" t="s">
@@ -31294,7 +30976,7 @@
       <c r="F433" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G433" s="8" t="s">
+      <c r="G433" s="7" t="s">
         <v>1007</v>
       </c>
       <c r="H433" s="0" t="n">
@@ -31306,9 +30988,8 @@
       <c r="J433" s="0" t="s">
         <v>986</v>
       </c>
-      <c r="K433" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K433" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L433" s="0" t="s">
         <v>22</v>
@@ -31317,7 +30998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
         <v>989</v>
       </c>
@@ -31327,7 +31008,7 @@
       <c r="C434" s="0" t="s">
         <v>990</v>
       </c>
-      <c r="D434" s="8" t="s">
+      <c r="D434" s="7" t="s">
         <v>1008</v>
       </c>
       <c r="E434" s="0" t="s">
@@ -31336,7 +31017,7 @@
       <c r="F434" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G434" s="8" t="s">
+      <c r="G434" s="7" t="s">
         <v>1009</v>
       </c>
       <c r="H434" s="0" t="n">
@@ -31348,9 +31029,8 @@
       <c r="J434" s="0" t="s">
         <v>990</v>
       </c>
-      <c r="K434" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K434" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L434" s="0" t="s">
         <v>22</v>
@@ -31400,8 +31080,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="7" t="n">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="6" t="n">
         <v>1269</v>
       </c>
       <c r="B436" s="0" t="s">
@@ -31431,9 +31111,8 @@
       <c r="J436" s="0" t="s">
         <v>1014</v>
       </c>
-      <c r="K436" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K436" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L436" s="0" t="s">
         <v>22</v>
@@ -31442,7 +31121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
         <v>1010</v>
       </c>
@@ -31473,9 +31152,8 @@
       <c r="J437" s="0" t="s">
         <v>1014</v>
       </c>
-      <c r="K437" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K437" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L437" s="0" t="s">
         <v>22</v>
@@ -31484,7 +31162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="120.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="120.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
         <v>1019</v>
       </c>
@@ -31515,9 +31193,8 @@
       <c r="J438" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="K438" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K438" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L438" s="0" t="s">
         <v>22</v>
@@ -31526,7 +31203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="120.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="120.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
         <v>1019</v>
       </c>
@@ -31557,9 +31234,8 @@
       <c r="J439" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="K439" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K439" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L439" s="0" t="s">
         <v>22</v>
@@ -31568,7 +31244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="71.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="71.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>1019</v>
       </c>
@@ -31599,9 +31275,8 @@
       <c r="J440" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="K440" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K440" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L440" s="0" t="s">
         <v>22</v>
@@ -31610,7 +31285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
         <v>1027</v>
       </c>
@@ -31638,9 +31313,8 @@
       <c r="J441" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="K441" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K441" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L441" s="0" t="s">
         <v>22</v>
@@ -31649,7 +31323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="98.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
         <v>1027</v>
       </c>
@@ -31680,9 +31354,8 @@
       <c r="J442" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="K442" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K442" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L442" s="0" t="s">
         <v>22</v>
@@ -31691,7 +31364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
         <v>1027</v>
       </c>
@@ -31719,9 +31392,8 @@
       <c r="J443" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="K443" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K443" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L443" s="0" t="s">
         <v>22</v>
@@ -31730,7 +31402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
         <v>1033</v>
       </c>
@@ -31761,9 +31433,8 @@
       <c r="J444" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="K444" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K444" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L444" s="0" t="s">
         <v>22</v>
@@ -31772,7 +31443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
         <v>1033</v>
       </c>
@@ -31803,9 +31474,8 @@
       <c r="J445" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="K445" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K445" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L445" s="0" t="s">
         <v>22</v>
@@ -31814,7 +31484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="29.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
         <v>1033</v>
       </c>
@@ -31845,9 +31515,8 @@
       <c r="J446" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="K446" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K446" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L446" s="0" t="s">
         <v>22</v>
@@ -31856,7 +31525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
         <v>1038</v>
       </c>
@@ -31887,9 +31556,8 @@
       <c r="J447" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="K447" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K447" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L447" s="0" t="s">
         <v>22</v>
@@ -31898,7 +31566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
         <v>1038</v>
       </c>
@@ -31929,9 +31597,8 @@
       <c r="J448" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="K448" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K448" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L448" s="0" t="s">
         <v>22</v>
@@ -31940,7 +31607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
         <v>1038</v>
       </c>
@@ -31971,9 +31638,8 @@
       <c r="J449" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="K449" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K449" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L449" s="0" t="s">
         <v>22</v>
@@ -31982,7 +31648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
         <v>1043</v>
       </c>
@@ -32013,9 +31679,8 @@
       <c r="J450" s="0" t="s">
         <v>1045</v>
       </c>
-      <c r="K450" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K450" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L450" s="0" t="s">
         <v>22</v>
@@ -32024,7 +31689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
         <v>1043</v>
       </c>
@@ -32055,9 +31720,8 @@
       <c r="J451" s="0" t="s">
         <v>1045</v>
       </c>
-      <c r="K451" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K451" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L451" s="0" t="s">
         <v>22</v>
@@ -32066,7 +31730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
         <v>1043</v>
       </c>
@@ -32097,9 +31761,8 @@
       <c r="J452" s="0" t="s">
         <v>1045</v>
       </c>
-      <c r="K452" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K452" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L452" s="0" t="s">
         <v>22</v>
@@ -32108,7 +31771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
         <v>1048</v>
       </c>
@@ -32139,9 +31802,8 @@
       <c r="J453" s="0" t="s">
         <v>1050</v>
       </c>
-      <c r="K453" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K453" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L453" s="0" t="s">
         <v>22</v>
@@ -32150,7 +31812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
         <v>1048</v>
       </c>
@@ -32181,9 +31843,8 @@
       <c r="J454" s="0" t="s">
         <v>1050</v>
       </c>
-      <c r="K454" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K454" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L454" s="0" t="s">
         <v>22</v>
@@ -32192,7 +31853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
         <v>1048</v>
       </c>
@@ -32223,9 +31884,8 @@
       <c r="J455" s="0" t="s">
         <v>1050</v>
       </c>
-      <c r="K455" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K455" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L455" s="0" t="s">
         <v>22</v>
@@ -32234,7 +31894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
         <v>1053</v>
       </c>
@@ -32265,9 +31925,8 @@
       <c r="J456" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="K456" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K456" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L456" s="0" t="s">
         <v>22</v>
@@ -32276,7 +31935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
         <v>1053</v>
       </c>
@@ -32307,9 +31966,8 @@
       <c r="J457" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="K457" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K457" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L457" s="0" t="s">
         <v>22</v>
@@ -32318,7 +31976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
         <v>1053</v>
       </c>
@@ -32349,9 +32007,8 @@
       <c r="J458" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="K458" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K458" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L458" s="0" t="s">
         <v>22</v>
@@ -32360,7 +32017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
         <v>1058</v>
       </c>
@@ -32391,9 +32048,8 @@
       <c r="J459" s="0" t="s">
         <v>1060</v>
       </c>
-      <c r="K459" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K459" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L459" s="0" t="s">
         <v>22</v>
@@ -32402,7 +32058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
         <v>1058</v>
       </c>
@@ -32433,9 +32089,8 @@
       <c r="J460" s="0" t="s">
         <v>1060</v>
       </c>
-      <c r="K460" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K460" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L460" s="0" t="s">
         <v>22</v>
@@ -32444,7 +32099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
         <v>1058</v>
       </c>
@@ -32475,9 +32130,8 @@
       <c r="J461" s="0" t="s">
         <v>1060</v>
       </c>
-      <c r="K461" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K461" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L461" s="0" t="s">
         <v>22</v>
@@ -32486,7 +32140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
         <v>1063</v>
       </c>
@@ -32517,9 +32171,8 @@
       <c r="J462" s="0" t="s">
         <v>1065</v>
       </c>
-      <c r="K462" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K462" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L462" s="0" t="s">
         <v>22</v>
@@ -32528,7 +32181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
         <v>1063</v>
       </c>
@@ -32559,9 +32212,8 @@
       <c r="J463" s="0" t="s">
         <v>1065</v>
       </c>
-      <c r="K463" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K463" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L463" s="0" t="s">
         <v>22</v>
@@ -32570,7 +32222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="26.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="26.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>1063</v>
       </c>
@@ -32601,9 +32253,8 @@
       <c r="J464" s="0" t="s">
         <v>1065</v>
       </c>
-      <c r="K464" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K464" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L464" s="0" t="s">
         <v>22</v>
@@ -32612,8 +32263,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="7" t="n">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="6" t="n">
         <v>1281</v>
       </c>
       <c r="B465" s="0" t="s">
@@ -32643,9 +32294,8 @@
       <c r="J465" s="0" t="s">
         <v>1070</v>
       </c>
-      <c r="K465" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K465" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L465" s="0" t="s">
         <v>22</v>
@@ -32654,8 +32304,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="7" t="n">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="6" t="n">
         <v>1281</v>
       </c>
       <c r="B466" s="0" t="s">
@@ -32685,9 +32335,8 @@
       <c r="J466" s="0" t="s">
         <v>1070</v>
       </c>
-      <c r="K466" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K466" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L466" s="0" t="s">
         <v>22</v>
@@ -32696,17 +32345,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="7" t="n">
+    <row r="467" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="6" t="n">
         <v>1281</v>
       </c>
       <c r="B467" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C467" s="8" t="s">
+      <c r="C467" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="D467" s="9" t="s">
+      <c r="D467" s="8" t="s">
         <v>1073</v>
       </c>
       <c r="E467" s="0" t="s">
@@ -32715,21 +32364,20 @@
       <c r="F467" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G467" s="8" t="s">
+      <c r="G467" s="7" t="s">
         <v>1074</v>
       </c>
       <c r="H467" s="0" t="n">
         <v>10001</v>
       </c>
-      <c r="I467" s="10" t="s">
+      <c r="I467" s="9" t="s">
         <v>220</v>
       </c>
       <c r="J467" s="0" t="s">
         <v>1070</v>
       </c>
-      <c r="K467" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="K467" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L467" s="0" t="s">
         <v>22</v>
@@ -32739,18 +32387,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N467">
-    <filterColumn colId="1">
-      <customFilters and="true">
-        <customFilter operator="equal" val="eng"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Registration Client"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -32758,6 +32394,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -15827,7 +15827,7 @@
   </sheetPr>
   <dimension ref="A1:BF947"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A769" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A718" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E769" activeCellId="0" sqref="E769"/>
     </sheetView>
   </sheetViews>
